--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>3.434063171572177</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8241175641301766</v>
+        <v>0.8241175641306029</v>
       </c>
       <c r="E2">
         <v>2.198591849705039</v>
       </c>
       <c r="F2">
-        <v>12.8576302722812</v>
+        <v>12.85763027228114</v>
       </c>
       <c r="G2">
         <v>11.51772553881577</v>
       </c>
       <c r="H2">
-        <v>11.29355081581591</v>
+        <v>11.29355081581588</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742121784</v>
+        <v>2.986638742122238</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6585680385357193</v>
+        <v>0.6585680385354635</v>
       </c>
       <c r="E3">
-        <v>1.740930616287187</v>
+        <v>1.740930616287216</v>
       </c>
       <c r="F3">
-        <v>10.37423901461247</v>
+        <v>10.37423901461256</v>
       </c>
       <c r="G3">
-        <v>9.285023622439979</v>
+        <v>9.285023622440036</v>
       </c>
       <c r="H3">
-        <v>9.844336852165497</v>
+        <v>9.844336852165554</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439815</v>
+        <v>2.712641930440043</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5718958148436286</v>
+        <v>0.5718958148434297</v>
       </c>
       <c r="E4">
-        <v>1.505047473162051</v>
+        <v>1.505047473162008</v>
       </c>
       <c r="F4">
-        <v>9.05495485879743</v>
+        <v>9.054954858797458</v>
       </c>
       <c r="G4">
-        <v>8.100347739986574</v>
+        <v>8.100347739986603</v>
       </c>
       <c r="H4">
-        <v>8.956724654652447</v>
+        <v>8.956724654652419</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140329</v>
+        <v>2.601103149140101</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5390160583321801</v>
+        <v>0.5390160583320096</v>
       </c>
       <c r="E5">
-        <v>1.416163914079902</v>
+        <v>1.416163914079931</v>
       </c>
       <c r="F5">
-        <v>8.551310715363996</v>
+        <v>8.55131071536394</v>
       </c>
       <c r="G5">
         <v>7.648324680317984</v>
       </c>
       <c r="H5">
-        <v>8.595401611000341</v>
+        <v>8.595401611000312</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5336776238240759</v>
+        <v>0.5336776238238485</v>
       </c>
       <c r="E6">
-        <v>1.401762399447605</v>
+        <v>1.40176239944762</v>
       </c>
       <c r="F6">
-        <v>8.46938012398968</v>
+        <v>8.469380123989765</v>
       </c>
       <c r="G6">
-        <v>7.574803151542426</v>
+        <v>7.57480315154254</v>
       </c>
       <c r="H6">
-        <v>8.535422914872356</v>
+        <v>8.535422914872299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286499252</v>
+        <v>2.711137286500048</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5714437515935344</v>
+        <v>0.5714437515933355</v>
       </c>
       <c r="E7">
-        <v>1.503823243596301</v>
+        <v>1.503823243596315</v>
       </c>
       <c r="F7">
-        <v>9.048041740754201</v>
+        <v>9.048041740754286</v>
       </c>
       <c r="G7">
-        <v>8.094142340856678</v>
+        <v>8.094142340856763</v>
       </c>
       <c r="H7">
-        <v>8.951850372969403</v>
+        <v>8.951850372969432</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042663</v>
+        <v>3.279600047042777</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7628305373096964</v>
+        <v>0.7628305373097248</v>
       </c>
       <c r="E8">
-        <v>2.027992262057566</v>
+        <v>2.027992262057595</v>
       </c>
       <c r="F8">
-        <v>11.94415552703171</v>
+        <v>11.94415552703174</v>
       </c>
       <c r="G8">
-        <v>10.69602271651522</v>
+        <v>10.69602271651524</v>
       </c>
       <c r="H8">
-        <v>10.7932942780659</v>
+        <v>10.79329427806584</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E9">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F9">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G9">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H9">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E10">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F10">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G10">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H10">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E11">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F11">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G11">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H11">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E12">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F12">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G12">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H12">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E13">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F13">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G13">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H13">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E14">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F14">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G14">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H14">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E15">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F15">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G15">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H15">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E16">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F16">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G16">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H16">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E17">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F17">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G17">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H17">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E18">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F18">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G18">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H18">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E19">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F19">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G19">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H19">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E20">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F20">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G20">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H20">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E21">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F21">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G21">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H21">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E22">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F22">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G22">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H22">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E23">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F23">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G23">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H23">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E24">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F24">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G24">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H24">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.403388309025161</v>
+        <v>4.403388309025672</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.5304419875024</v>
+        <v>1.53044198750203</v>
       </c>
       <c r="E25">
-        <v>4.319408256480642</v>
+        <v>4.319408256480713</v>
       </c>
       <c r="F25">
-        <v>22.7589822679256</v>
+        <v>22.75898226792583</v>
       </c>
       <c r="G25">
-        <v>20.47100522768841</v>
+        <v>20.47100522768861</v>
       </c>
       <c r="H25">
-        <v>14.43077138200431</v>
+        <v>14.43077138200437</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171572177</v>
+        <v>3.434063171571836</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8241175641306029</v>
+        <v>0.8241175641301766</v>
       </c>
       <c r="E2">
         <v>2.198591849705039</v>
       </c>
       <c r="F2">
-        <v>12.85763027228114</v>
+        <v>12.8576302722812</v>
       </c>
       <c r="G2">
         <v>11.51772553881577</v>
       </c>
       <c r="H2">
-        <v>11.29355081581588</v>
+        <v>11.29355081581591</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122238</v>
+        <v>2.986638742121784</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6585680385354635</v>
+        <v>0.6585680385357193</v>
       </c>
       <c r="E3">
-        <v>1.740930616287216</v>
+        <v>1.740930616287187</v>
       </c>
       <c r="F3">
-        <v>10.37423901461256</v>
+        <v>10.37423901461247</v>
       </c>
       <c r="G3">
-        <v>9.285023622440036</v>
+        <v>9.285023622439979</v>
       </c>
       <c r="H3">
-        <v>9.844336852165554</v>
+        <v>9.844336852165497</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930440043</v>
+        <v>2.712641930439815</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5718958148434297</v>
+        <v>0.5718958148436286</v>
       </c>
       <c r="E4">
-        <v>1.505047473162008</v>
+        <v>1.505047473162051</v>
       </c>
       <c r="F4">
-        <v>9.054954858797458</v>
+        <v>9.05495485879743</v>
       </c>
       <c r="G4">
-        <v>8.100347739986603</v>
+        <v>8.100347739986574</v>
       </c>
       <c r="H4">
-        <v>8.956724654652419</v>
+        <v>8.956724654652447</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140101</v>
+        <v>2.601103149140329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5390160583320096</v>
+        <v>0.5390160583321801</v>
       </c>
       <c r="E5">
-        <v>1.416163914079931</v>
+        <v>1.416163914079902</v>
       </c>
       <c r="F5">
-        <v>8.55131071536394</v>
+        <v>8.551310715363996</v>
       </c>
       <c r="G5">
         <v>7.648324680317984</v>
       </c>
       <c r="H5">
-        <v>8.595401611000312</v>
+        <v>8.595401611000341</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5336776238238485</v>
+        <v>0.5336776238240759</v>
       </c>
       <c r="E6">
-        <v>1.40176239944762</v>
+        <v>1.401762399447605</v>
       </c>
       <c r="F6">
-        <v>8.469380123989765</v>
+        <v>8.46938012398968</v>
       </c>
       <c r="G6">
-        <v>7.57480315154254</v>
+        <v>7.574803151542426</v>
       </c>
       <c r="H6">
-        <v>8.535422914872299</v>
+        <v>8.535422914872356</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286500048</v>
+        <v>2.711137286499252</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5714437515933355</v>
+        <v>0.5714437515935344</v>
       </c>
       <c r="E7">
-        <v>1.503823243596315</v>
+        <v>1.503823243596301</v>
       </c>
       <c r="F7">
-        <v>9.048041740754286</v>
+        <v>9.048041740754201</v>
       </c>
       <c r="G7">
-        <v>8.094142340856763</v>
+        <v>8.094142340856678</v>
       </c>
       <c r="H7">
-        <v>8.951850372969432</v>
+        <v>8.951850372969403</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042777</v>
+        <v>3.279600047042663</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7628305373097248</v>
+        <v>0.7628305373096964</v>
       </c>
       <c r="E8">
-        <v>2.027992262057595</v>
+        <v>2.027992262057566</v>
       </c>
       <c r="F8">
-        <v>11.94415552703174</v>
+        <v>11.94415552703171</v>
       </c>
       <c r="G8">
-        <v>10.69602271651524</v>
+        <v>10.69602271651522</v>
       </c>
       <c r="H8">
-        <v>10.79329427806584</v>
+        <v>10.7932942780659</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E9">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F9">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G9">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H9">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E10">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F10">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G10">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H10">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E11">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F11">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G11">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H11">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E12">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F12">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G12">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H12">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E13">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F13">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G13">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H13">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E14">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F14">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G14">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H14">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E15">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F15">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G15">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H15">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E16">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F16">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G16">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H16">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E17">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F17">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G17">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H17">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E18">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F18">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G18">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H18">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E19">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F19">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G19">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H19">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E20">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F20">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G20">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H20">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E21">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F21">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G21">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H21">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E22">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F22">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G22">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H22">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E23">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F23">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G23">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H23">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E24">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F24">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G24">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H24">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.403388309025672</v>
+        <v>4.403388309025161</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.53044198750203</v>
+        <v>1.5304419875024</v>
       </c>
       <c r="E25">
-        <v>4.319408256480713</v>
+        <v>4.319408256480642</v>
       </c>
       <c r="F25">
-        <v>22.75898226792583</v>
+        <v>22.7589822679256</v>
       </c>
       <c r="G25">
-        <v>20.47100522768861</v>
+        <v>20.47100522768841</v>
       </c>
       <c r="H25">
-        <v>14.43077138200437</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,23 +421,23 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8241175641301766</v>
+        <v>0.8201457697198293</v>
       </c>
       <c r="E2">
-        <v>2.198591849705039</v>
+        <v>2.195360547802537</v>
       </c>
       <c r="F2">
-        <v>12.8576302722812</v>
+        <v>12.81389088777291</v>
       </c>
       <c r="G2">
-        <v>11.51772553881577</v>
+        <v>3.887684269679255</v>
       </c>
       <c r="H2">
+        <v>7.583803107653097</v>
+      </c>
+      <c r="I2">
         <v>11.29355081581591</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,23 +462,23 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6585680385357193</v>
+        <v>0.6556559683002376</v>
       </c>
       <c r="E3">
-        <v>1.740930616287187</v>
+        <v>1.739157178970856</v>
       </c>
       <c r="F3">
-        <v>10.37423901461247</v>
+        <v>10.34278433075085</v>
       </c>
       <c r="G3">
-        <v>9.285023622439979</v>
+        <v>3.135042190269303</v>
       </c>
       <c r="H3">
+        <v>6.117024350031727</v>
+      </c>
+      <c r="I3">
         <v>9.844336852165497</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,23 +503,23 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5718958148436286</v>
+        <v>0.5694616936435466</v>
       </c>
       <c r="E4">
-        <v>1.505047473162051</v>
+        <v>1.503793979665218</v>
       </c>
       <c r="F4">
-        <v>9.05495485879743</v>
+        <v>9.028931586348477</v>
       </c>
       <c r="G4">
-        <v>8.100347739986574</v>
+        <v>2.73503726209708</v>
       </c>
       <c r="H4">
+        <v>5.338416763183432</v>
+      </c>
+      <c r="I4">
         <v>8.956724654652447</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,23 +544,23 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5390160583321801</v>
+        <v>0.5367526274735326</v>
       </c>
       <c r="E5">
-        <v>1.416163914079902</v>
+        <v>1.415074752969005</v>
       </c>
       <c r="F5">
-        <v>8.551310715363996</v>
+        <v>8.52720751147055</v>
       </c>
       <c r="G5">
-        <v>7.648324680317984</v>
+        <v>2.582294369571741</v>
       </c>
       <c r="H5">
+        <v>5.04131287240449</v>
+      </c>
+      <c r="I5">
         <v>8.595401611000341</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,23 +585,23 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5336776238240759</v>
+        <v>0.5314414102790863</v>
       </c>
       <c r="E6">
-        <v>1.401762399447605</v>
+        <v>1.400698396188702</v>
       </c>
       <c r="F6">
-        <v>8.46938012398968</v>
+        <v>8.445582058529993</v>
       </c>
       <c r="G6">
-        <v>7.574803151542426</v>
+        <v>2.557444460524408</v>
       </c>
       <c r="H6">
+        <v>4.992988788385418</v>
+      </c>
+      <c r="I6">
         <v>8.535422914872356</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,23 +626,23 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5714437515935344</v>
+        <v>0.5690120139804264</v>
       </c>
       <c r="E7">
-        <v>1.503823243596301</v>
+        <v>1.502572122667772</v>
       </c>
       <c r="F7">
-        <v>9.048041740754201</v>
+        <v>9.022045355700016</v>
       </c>
       <c r="G7">
-        <v>8.094142340856678</v>
+        <v>2.732940844427532</v>
       </c>
       <c r="H7">
+        <v>5.334338133214175</v>
+      </c>
+      <c r="I7">
         <v>8.951850372969403</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,23 +667,23 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7628305373096964</v>
+        <v>0.7592778041835402</v>
       </c>
       <c r="E8">
-        <v>2.027992262057566</v>
+        <v>2.025386392220895</v>
       </c>
       <c r="F8">
-        <v>11.94415552703171</v>
+        <v>11.90530917820507</v>
       </c>
       <c r="G8">
-        <v>10.69602271651522</v>
+        <v>3.610883155678351</v>
       </c>
       <c r="H8">
+        <v>7.044126497356984</v>
+      </c>
+      <c r="I8">
         <v>10.7932942780659</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,22 +708,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E9">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F9">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G9">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H9">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E10">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F10">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G10">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H10">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -760,22 +790,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E11">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F11">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G11">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H11">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,22 +831,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E12">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F12">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G12">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H12">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E13">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F13">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G13">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H13">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,22 +913,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E14">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F14">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G14">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H14">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -912,22 +954,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E15">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F15">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G15">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H15">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,22 +995,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E16">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F16">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G16">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H16">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -988,22 +1036,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E17">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F17">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G17">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H17">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1026,22 +1077,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E18">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F18">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G18">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H18">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1064,22 +1118,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E19">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F19">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G19">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H19">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,22 +1159,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E20">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F20">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G20">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H20">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E21">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F21">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G21">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H21">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1178,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E22">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F22">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G22">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H22">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1216,22 +1282,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E23">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F23">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G23">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H23">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1254,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E24">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F24">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G24">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H24">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1292,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.5304419875024</v>
+        <v>1.510788301307713</v>
       </c>
       <c r="E25">
-        <v>4.319408256480642</v>
+        <v>4.271015934405298</v>
       </c>
       <c r="F25">
-        <v>22.7589822679256</v>
+        <v>22.52411289833969</v>
       </c>
       <c r="G25">
-        <v>20.47100522768841</v>
+        <v>6.857214410484033</v>
       </c>
       <c r="H25">
-        <v>14.43077138200431</v>
+        <v>13.38478741299986</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>0.2721404590462839</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8201457697198293</v>
+        <v>0.06973406009209526</v>
       </c>
       <c r="E2">
-        <v>2.195360547802537</v>
+        <v>0.06644594107859092</v>
       </c>
       <c r="F2">
-        <v>12.81389088777291</v>
+        <v>7.120114955627855</v>
       </c>
       <c r="G2">
-        <v>3.887684269679255</v>
+        <v>0.0006970181138571892</v>
       </c>
       <c r="H2">
-        <v>7.583803107653097</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.29355081581591</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3170186631104315</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.53125983104789</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742121784</v>
+        <v>0.2367300067438407</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6556559683002376</v>
+        <v>0.05180788917300561</v>
       </c>
       <c r="E3">
-        <v>1.739157178970856</v>
+        <v>0.05891002964769854</v>
       </c>
       <c r="F3">
-        <v>10.34278433075085</v>
+        <v>6.022527647574464</v>
       </c>
       <c r="G3">
-        <v>3.135042190269303</v>
+        <v>0.0007274879122848622</v>
       </c>
       <c r="H3">
-        <v>6.117024350031727</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.844336852165497</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2709704839004132</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.753493659402807</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439815</v>
+        <v>0.2154011499158059</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5694616936435466</v>
+        <v>0.04260009229322748</v>
       </c>
       <c r="E4">
-        <v>1.503793979665218</v>
+        <v>0.0545326799750292</v>
       </c>
       <c r="F4">
-        <v>9.028931586348477</v>
+        <v>5.431910483284469</v>
       </c>
       <c r="G4">
-        <v>2.73503726209708</v>
+        <v>0.0007457267508765504</v>
       </c>
       <c r="H4">
-        <v>5.338416763183432</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.956724654652447</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2454468143321691</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.72508982098995</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140329</v>
+        <v>0.206794961555417</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5367526274735326</v>
+        <v>0.03918885083595569</v>
       </c>
       <c r="E5">
-        <v>1.415074752969005</v>
+        <v>0.05279748974395204</v>
       </c>
       <c r="F5">
-        <v>8.52720751147055</v>
+        <v>5.207425067966568</v>
       </c>
       <c r="G5">
-        <v>2.582294369571741</v>
+        <v>0.0007530969455442502</v>
       </c>
       <c r="H5">
-        <v>5.04131287240449</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.595401611000341</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2355793683214813</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.317974635023432</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512586201</v>
+        <v>0.2053706098068773</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5314414102790863</v>
+        <v>0.03864040377725786</v>
       </c>
       <c r="E6">
-        <v>1.400698396188702</v>
+        <v>0.05251195990379642</v>
       </c>
       <c r="F6">
-        <v>8.445582058529993</v>
+        <v>5.171015402036033</v>
       </c>
       <c r="G6">
-        <v>2.557444460524408</v>
+        <v>0.0007543183227372019</v>
       </c>
       <c r="H6">
-        <v>4.992988788385418</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.535422914872356</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2339693817495316</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.251003362800191</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286499252</v>
+        <v>0.2152847591326008</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5690120139804264</v>
+        <v>0.04255282808161098</v>
       </c>
       <c r="E7">
-        <v>1.502572122667772</v>
+        <v>0.05450909752678257</v>
       </c>
       <c r="F7">
-        <v>9.022045355700016</v>
+        <v>5.428822647667602</v>
       </c>
       <c r="G7">
-        <v>2.732940844427532</v>
+        <v>0.0007458263383495748</v>
       </c>
       <c r="H7">
-        <v>5.334338133214175</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>8.951850372969403</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2453117518110446</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.719555193583744</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042663</v>
+        <v>0.2598325967839799</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7592778041835402</v>
+        <v>0.06309968851608261</v>
       </c>
       <c r="E8">
-        <v>2.025386392220895</v>
+        <v>0.06378568578231381</v>
       </c>
       <c r="F8">
-        <v>11.90530917820507</v>
+        <v>6.720979624417652</v>
       </c>
       <c r="G8">
-        <v>3.610883155678351</v>
+        <v>0.000707661409796544</v>
       </c>
       <c r="H8">
-        <v>7.044126497356984</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.7932942780659</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3004577844802157</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.90239446491219</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025161</v>
+        <v>0.3516592444375277</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.510788301307713</v>
+        <v>0.1261106829485996</v>
       </c>
       <c r="E9">
-        <v>4.271015934405298</v>
+        <v>0.08498276349924438</v>
       </c>
       <c r="F9">
-        <v>22.52411289833969</v>
+        <v>10.2699757824129</v>
       </c>
       <c r="G9">
-        <v>6.857214410484033</v>
+        <v>0.0006249637003945593</v>
       </c>
       <c r="H9">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4421241014524639</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.97140608701801</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.403388309025161</v>
+        <v>0.4249398194988885</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.510788301307713</v>
+        <v>0.2140701426581657</v>
       </c>
       <c r="E10">
-        <v>4.271015934405298</v>
+        <v>0.1055095717071808</v>
       </c>
       <c r="F10">
-        <v>22.52411289833969</v>
+        <v>14.63224032790356</v>
       </c>
       <c r="G10">
-        <v>6.857214410484033</v>
+        <v>0.0005462993402511444</v>
       </c>
       <c r="H10">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6038930977232582</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.07796115148568</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403388309025161</v>
+        <v>0.4619852395461379</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.510788301307713</v>
+        <v>0.2919304576655577</v>
       </c>
       <c r="E11">
-        <v>4.271015934405298</v>
+        <v>0.1188595686468652</v>
       </c>
       <c r="F11">
-        <v>22.52411289833969</v>
+        <v>18.1376662511268</v>
       </c>
       <c r="G11">
-        <v>6.857214410484033</v>
+        <v>0.0004935858071035896</v>
       </c>
       <c r="H11">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7270241052991651</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.58346536787309</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.403388309025161</v>
+        <v>0.4779160043853068</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.510788301307713</v>
+        <v>0.3457864111587554</v>
       </c>
       <c r="E12">
-        <v>4.271015934405298</v>
+        <v>0.1262968563400584</v>
       </c>
       <c r="F12">
-        <v>22.52411289833969</v>
+        <v>20.41666038769546</v>
       </c>
       <c r="G12">
-        <v>6.857214410484033</v>
+        <v>0.0004628448937522804</v>
       </c>
       <c r="H12">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8044083586886472</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.63961438807576</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403388309025161</v>
+        <v>0.4742813455069097</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.510788301307713</v>
+        <v>0.3313677670285813</v>
       </c>
       <c r="E13">
-        <v>4.271015934405298</v>
+        <v>0.124427873133989</v>
       </c>
       <c r="F13">
-        <v>22.52411289833969</v>
+        <v>19.81690512591706</v>
       </c>
       <c r="G13">
-        <v>6.857214410484033</v>
+        <v>0.0004707025158117689</v>
       </c>
       <c r="H13">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7842319610540756</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.11385743376189</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403388309025161</v>
+        <v>0.4632269563578859</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.510788301307713</v>
+        <v>0.2954281849170286</v>
       </c>
       <c r="E14">
-        <v>4.271015934405298</v>
+        <v>0.1193821804033881</v>
       </c>
       <c r="F14">
-        <v>22.52411289833969</v>
+        <v>18.28899865009731</v>
       </c>
       <c r="G14">
-        <v>6.857214410484033</v>
+        <v>0.000491467189517298</v>
       </c>
       <c r="H14">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7322241557572227</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.72504770642621</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403388309025161</v>
+        <v>0.4568200405648781</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.510788301307713</v>
+        <v>0.2782506899733335</v>
       </c>
       <c r="E15">
-        <v>4.271015934405298</v>
+        <v>0.1167579598088011</v>
       </c>
       <c r="F15">
-        <v>22.52411289833969</v>
+        <v>17.54108343548739</v>
       </c>
       <c r="G15">
-        <v>6.857214410484033</v>
+        <v>0.0005020535732794491</v>
       </c>
       <c r="H15">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7064357599317646</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.01793482227851</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403388309025161</v>
+        <v>0.4226406310004904</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.510788301307713</v>
+        <v>0.2103518983557038</v>
       </c>
       <c r="E16">
-        <v>4.271015934405298</v>
+        <v>0.1047777824249074</v>
       </c>
       <c r="F16">
-        <v>22.52411289833969</v>
+        <v>14.45757666461236</v>
       </c>
       <c r="G16">
-        <v>6.857214410484033</v>
+        <v>0.0005491319450938725</v>
       </c>
       <c r="H16">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5976137371024208</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.89094272663431</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.403388309025161</v>
+        <v>0.4028896620126829</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.510788301307713</v>
+        <v>0.1816997930292459</v>
       </c>
       <c r="E17">
-        <v>4.271015934405298</v>
+        <v>0.09878746820653461</v>
       </c>
       <c r="F17">
-        <v>22.52411289833969</v>
+        <v>13.0857432940673</v>
       </c>
       <c r="G17">
-        <v>6.857214410484033</v>
+        <v>0.0005721898760804311</v>
       </c>
       <c r="H17">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5477649710913397</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.3758429179527</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.403388309025161</v>
+        <v>0.3917997952593026</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.510788301307713</v>
+        <v>0.1677283660685802</v>
       </c>
       <c r="E18">
-        <v>4.271015934405298</v>
+        <v>0.095617321461134</v>
       </c>
       <c r="F18">
-        <v>22.52411289833969</v>
+        <v>12.39880592932872</v>
       </c>
       <c r="G18">
-        <v>6.857214410484033</v>
+        <v>0.0005843266967356517</v>
       </c>
       <c r="H18">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5224297216576446</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.58429231374214</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.403388309025161</v>
+        <v>0.3880827960102948</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.510788301307713</v>
+        <v>0.1633260926187461</v>
       </c>
       <c r="E19">
-        <v>4.271015934405298</v>
+        <v>0.09458079970484334</v>
       </c>
       <c r="F19">
-        <v>22.52411289833969</v>
+        <v>12.17969544689157</v>
       </c>
       <c r="G19">
-        <v>6.857214410484033</v>
+        <v>0.0005882891510420693</v>
       </c>
       <c r="H19">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5142928008747418</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.32686755920128</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.403388309025161</v>
+        <v>0.4049618901023422</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.510788301307713</v>
+        <v>0.1844622233620967</v>
       </c>
       <c r="E20">
-        <v>4.271015934405298</v>
+        <v>0.09939381533726177</v>
       </c>
       <c r="F20">
-        <v>22.52411289833969</v>
+        <v>13.22010306228668</v>
       </c>
       <c r="G20">
-        <v>6.857214410484033</v>
+        <v>0.0005698644523252029</v>
       </c>
       <c r="H20">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5526902352800676</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.5280043003072</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403388309025161</v>
+        <v>0.4663814861213211</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.510788301307713</v>
+        <v>0.3047356025645342</v>
       </c>
       <c r="E21">
-        <v>4.271015934405298</v>
+        <v>0.1207446410539674</v>
       </c>
       <c r="F21">
-        <v>22.52411289833969</v>
+        <v>18.68936244529806</v>
       </c>
       <c r="G21">
-        <v>6.857214410484033</v>
+        <v>0.0004859176855809773</v>
       </c>
       <c r="H21">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7459381998008041</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.09604252758675</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403388309025161</v>
+        <v>0.4663814861213211</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.510788301307713</v>
+        <v>0.3047356025645342</v>
       </c>
       <c r="E22">
-        <v>4.271015934405298</v>
+        <v>0.1207446410539674</v>
       </c>
       <c r="F22">
-        <v>22.52411289833969</v>
+        <v>18.68936244529806</v>
       </c>
       <c r="G22">
-        <v>6.857214410484033</v>
+        <v>0.0004859176855809773</v>
       </c>
       <c r="H22">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7459381998008041</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.09604252758675</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403388309025161</v>
+        <v>0.4663814861213211</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.510788301307713</v>
+        <v>0.3047356025645342</v>
       </c>
       <c r="E23">
-        <v>4.271015934405298</v>
+        <v>0.1207446410539674</v>
       </c>
       <c r="F23">
-        <v>22.52411289833969</v>
+        <v>18.68936244529806</v>
       </c>
       <c r="G23">
-        <v>6.857214410484033</v>
+        <v>0.0004859176855809773</v>
       </c>
       <c r="H23">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7459381998008041</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.09604252758675</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.403388309025161</v>
+        <v>0.4663814861213211</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.510788301307713</v>
+        <v>0.3047356025645342</v>
       </c>
       <c r="E24">
-        <v>4.271015934405298</v>
+        <v>0.1207446410539674</v>
       </c>
       <c r="F24">
-        <v>22.52411289833969</v>
+        <v>18.68936244529806</v>
       </c>
       <c r="G24">
-        <v>6.857214410484033</v>
+        <v>0.0004859176855809773</v>
       </c>
       <c r="H24">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7459381998008041</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.09604252758675</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.403388309025161</v>
+        <v>0.4663814861213211</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.510788301307713</v>
+        <v>0.3047356025645342</v>
       </c>
       <c r="E25">
-        <v>4.271015934405298</v>
+        <v>0.1207446410539674</v>
       </c>
       <c r="F25">
-        <v>22.52411289833969</v>
+        <v>18.68936244529806</v>
       </c>
       <c r="G25">
-        <v>6.857214410484033</v>
+        <v>0.0004859176855809773</v>
       </c>
       <c r="H25">
-        <v>13.38478741299986</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.43077138200431</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7459381998008041</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>25.09604252758675</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2721404590462839</v>
+        <v>0.07673432054070872</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06973406009209526</v>
+        <v>0.00420244800343994</v>
       </c>
       <c r="E2">
-        <v>0.06644594107859092</v>
+        <v>0.02621191246470644</v>
       </c>
       <c r="F2">
-        <v>7.120114955627855</v>
+        <v>3.936752364173628</v>
       </c>
       <c r="G2">
-        <v>0.0006970181138571892</v>
+        <v>0.0008401324591561739</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.14905937675799</v>
       </c>
       <c r="J2">
-        <v>0.3170186631104315</v>
+        <v>0.1108330145184482</v>
       </c>
       <c r="K2">
-        <v>11.53125983104789</v>
+        <v>2.814282654514784</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5677130157274277</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2367300067438407</v>
+        <v>0.07024777481844069</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05180788917300561</v>
+        <v>0.003755097682432762</v>
       </c>
       <c r="E3">
-        <v>0.05891002964769854</v>
+        <v>0.02492787511248196</v>
       </c>
       <c r="F3">
-        <v>6.022527647574464</v>
+        <v>3.638326369362744</v>
       </c>
       <c r="G3">
-        <v>0.0007274879122848622</v>
+        <v>0.0008497538652597524</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.096122787385504</v>
       </c>
       <c r="J3">
-        <v>0.2709704839004132</v>
+        <v>0.1045634702446137</v>
       </c>
       <c r="K3">
-        <v>9.753493659402807</v>
+        <v>2.444864309199858</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4977430169534003</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2154011499158059</v>
+        <v>0.06617731953380002</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04260009229322748</v>
+        <v>0.003487366143501092</v>
       </c>
       <c r="E4">
-        <v>0.0545326799750292</v>
+        <v>0.02417863430388145</v>
       </c>
       <c r="F4">
-        <v>5.431910483284469</v>
+        <v>3.461241046712246</v>
       </c>
       <c r="G4">
-        <v>0.0007457267508765504</v>
+        <v>0.0008558111061353863</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.064746502120457</v>
       </c>
       <c r="J4">
-        <v>0.2454468143321691</v>
+        <v>0.1008708180253706</v>
       </c>
       <c r="K4">
-        <v>8.72508982098995</v>
+        <v>2.223289347379676</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4558493519552727</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.206794961555417</v>
+        <v>0.06449760077550337</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03918885083595569</v>
+        <v>0.003379638231155724</v>
       </c>
       <c r="E5">
-        <v>0.05279748974395204</v>
+        <v>0.02388256972392355</v>
       </c>
       <c r="F5">
-        <v>5.207425067966568</v>
+        <v>3.390473454388967</v>
       </c>
       <c r="G5">
-        <v>0.0007530969455442502</v>
+        <v>0.0008583191590245277</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.052218205421632</v>
       </c>
       <c r="J5">
-        <v>0.2355793683214813</v>
+        <v>0.09940222510318364</v>
       </c>
       <c r="K5">
-        <v>8.317974635023432</v>
+        <v>2.13415128482859</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4390151110707166</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2053706098068773</v>
+        <v>0.06421744784424277</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03864040377725786</v>
+        <v>0.003361823050898494</v>
       </c>
       <c r="E6">
-        <v>0.05251195990379642</v>
+        <v>0.02383395122889453</v>
       </c>
       <c r="F6">
-        <v>5.171015402036033</v>
+        <v>3.378802724894541</v>
       </c>
       <c r="G6">
-        <v>0.0007543183227372019</v>
+        <v>0.0008587380724551374</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.050152751289239</v>
       </c>
       <c r="J6">
-        <v>0.2339693817495316</v>
+        <v>0.09916046240670795</v>
       </c>
       <c r="K6">
-        <v>8.251003362800191</v>
+        <v>2.119415242260999</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4362333094958899</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2152847591326008</v>
+        <v>0.06615474982467617</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04255282808161098</v>
+        <v>0.003485908181543707</v>
       </c>
       <c r="E7">
-        <v>0.05450909752678257</v>
+        <v>0.02417460473514765</v>
       </c>
       <c r="F7">
-        <v>5.428822647667602</v>
+        <v>3.460281186500367</v>
       </c>
       <c r="G7">
-        <v>0.0007458263383495748</v>
+        <v>0.0008558447674701899</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.064576529690584</v>
       </c>
       <c r="J7">
-        <v>0.2453117518110446</v>
+        <v>0.1008508696241179</v>
       </c>
       <c r="K7">
-        <v>8.719555193583744</v>
+        <v>2.222082728125343</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4556213955306063</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2598325967839799</v>
+        <v>0.07451663122053276</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06309968851608261</v>
+        <v>0.004046523709476446</v>
       </c>
       <c r="E8">
-        <v>0.06378568578231381</v>
+        <v>0.02576067548427474</v>
       </c>
       <c r="F8">
-        <v>6.720979624417652</v>
+        <v>3.832484063881822</v>
       </c>
       <c r="G8">
-        <v>0.000707661409796544</v>
+        <v>0.0008434201449771113</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.130556856998048</v>
       </c>
       <c r="J8">
-        <v>0.3004577844802157</v>
+        <v>0.108636666577496</v>
       </c>
       <c r="K8">
-        <v>10.90239446491219</v>
+        <v>2.685713764545</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5433461771329462</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3516592444375277</v>
+        <v>0.09016593053290478</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1261106829485996</v>
+        <v>0.00522022578397241</v>
       </c>
       <c r="E9">
-        <v>0.08498276349924438</v>
+        <v>0.02921148081884795</v>
       </c>
       <c r="F9">
-        <v>10.2699757824129</v>
+        <v>4.618731140536823</v>
       </c>
       <c r="G9">
-        <v>0.0006249637003945593</v>
+        <v>0.000820140436496998</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.270163552760593</v>
       </c>
       <c r="J9">
-        <v>0.4421241014524639</v>
+        <v>0.1253128947748081</v>
       </c>
       <c r="K9">
-        <v>15.97140608701801</v>
+        <v>3.644876483749101</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7254103906400005</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4249398194988885</v>
+        <v>0.1011261953268487</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2140701426581657</v>
+        <v>0.006159325223869416</v>
       </c>
       <c r="E10">
-        <v>0.1055095717071808</v>
+        <v>0.03200132297591374</v>
       </c>
       <c r="F10">
-        <v>14.63224032790356</v>
+        <v>5.242683289618043</v>
       </c>
       <c r="G10">
-        <v>0.0005462993402511444</v>
+        <v>0.0008035371735816386</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.380957380565647</v>
       </c>
       <c r="J10">
-        <v>0.6038930977232582</v>
+        <v>0.1386809644751281</v>
       </c>
       <c r="K10">
-        <v>21.07796115148568</v>
+        <v>4.393277517988395</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.8677658633938492</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4619852395461379</v>
+        <v>0.1059744789462584</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2919304576655577</v>
+        <v>0.006611868591289038</v>
       </c>
       <c r="E11">
-        <v>0.1188595686468652</v>
+        <v>0.0333379735274999</v>
       </c>
       <c r="F11">
-        <v>18.1376662511268</v>
+        <v>5.539710049560654</v>
       </c>
       <c r="G11">
-        <v>0.0004935858071035896</v>
+        <v>0.0007960507140061615</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.433660730099973</v>
       </c>
       <c r="J11">
-        <v>0.7270241052991651</v>
+        <v>0.1450718593864693</v>
       </c>
       <c r="K11">
-        <v>24.58346536787309</v>
+        <v>4.746721850904692</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.935043500475615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4779160043853068</v>
+        <v>0.1077884996658014</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3457864111587554</v>
+        <v>0.006787762596850655</v>
       </c>
       <c r="E12">
-        <v>0.1262968563400584</v>
+        <v>0.03385502276636743</v>
       </c>
       <c r="F12">
-        <v>20.41666038769546</v>
+        <v>5.654387504940672</v>
       </c>
       <c r="G12">
-        <v>0.0004628448937522804</v>
+        <v>0.0007932212819405926</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.453998874087631</v>
       </c>
       <c r="J12">
-        <v>0.8044083586886472</v>
+        <v>0.1475429818406511</v>
       </c>
       <c r="K12">
-        <v>26.63961438807576</v>
+        <v>4.882772884233191</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.9609458233181201</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4742813455069097</v>
+        <v>0.1073988300914479</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3313677670285813</v>
+        <v>0.006749663625779334</v>
       </c>
       <c r="E13">
-        <v>0.124427873133989</v>
+        <v>0.03374316216428852</v>
       </c>
       <c r="F13">
-        <v>19.81690512591706</v>
+        <v>5.629586511902062</v>
       </c>
       <c r="G13">
-        <v>0.0004707025158117689</v>
+        <v>0.0007938304752429434</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.4496009069303</v>
       </c>
       <c r="J13">
-        <v>0.7842319610540756</v>
+        <v>0.1470083984020221</v>
       </c>
       <c r="K13">
-        <v>26.11385743376189</v>
+        <v>4.853367612617149</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.9553472468940925</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4632269563578859</v>
+        <v>0.1061241721638879</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2954281849170286</v>
+        <v>0.006626243174128632</v>
       </c>
       <c r="E14">
-        <v>0.1193821804033881</v>
+        <v>0.03338028592349929</v>
       </c>
       <c r="F14">
-        <v>18.28899865009731</v>
+        <v>5.549098647332642</v>
       </c>
       <c r="G14">
-        <v>0.000491467189517298</v>
+        <v>0.0007958178492587898</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.435326027875504</v>
       </c>
       <c r="J14">
-        <v>0.7322241557572227</v>
+        <v>0.1452740968883646</v>
       </c>
       <c r="K14">
-        <v>24.72504770642621</v>
+        <v>4.757868435494856</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9371655703261297</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4568200405648781</v>
+        <v>0.1053404841808643</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2782506899733335</v>
+        <v>0.006551262841256289</v>
       </c>
       <c r="E15">
-        <v>0.1167579598088011</v>
+        <v>0.03315946950901782</v>
       </c>
       <c r="F15">
-        <v>17.54108343548739</v>
+        <v>5.500093754888525</v>
       </c>
       <c r="G15">
-        <v>0.0005020535732794491</v>
+        <v>0.0007970357636866869</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.426633389854317</v>
       </c>
       <c r="J15">
-        <v>0.7064357599317646</v>
+        <v>0.1442186412264164</v>
       </c>
       <c r="K15">
-        <v>24.01793482227851</v>
+        <v>4.699671148934328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9260862569248403</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4226406310004904</v>
+        <v>0.1008064044649402</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2103518983557038</v>
+        <v>0.006130332226536694</v>
       </c>
       <c r="E16">
-        <v>0.1047777824249074</v>
+        <v>0.03191542569871508</v>
       </c>
       <c r="F16">
-        <v>14.45757666461236</v>
+        <v>5.223562226790989</v>
       </c>
       <c r="G16">
-        <v>0.0005491319450938725</v>
+        <v>0.0008040274370078844</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.377563502299907</v>
       </c>
       <c r="J16">
-        <v>0.5976137371024208</v>
+        <v>0.1382700710251825</v>
       </c>
       <c r="K16">
-        <v>20.89094272663431</v>
+        <v>4.370468558550044</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.8634250234418133</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4028896620126829</v>
+        <v>0.09798822883916358</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1816997930292459</v>
+        <v>0.005879175198202802</v>
       </c>
       <c r="E17">
-        <v>0.09878746820653461</v>
+        <v>0.0311703308732536</v>
       </c>
       <c r="F17">
-        <v>13.0857432940673</v>
+        <v>5.057499437817597</v>
       </c>
       <c r="G17">
-        <v>0.0005721898760804311</v>
+        <v>0.0008083309294530168</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.348083609428386</v>
       </c>
       <c r="J17">
-        <v>0.5477649710913397</v>
+        <v>0.1347044788958769</v>
       </c>
       <c r="K17">
-        <v>19.3758429179527</v>
+        <v>4.172068391281016</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8256719768049408</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3917997952593026</v>
+        <v>0.09635448193372298</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1677283660685802</v>
+        <v>0.005737040547591832</v>
       </c>
       <c r="E18">
-        <v>0.095617321461134</v>
+        <v>0.03074804968921541</v>
       </c>
       <c r="F18">
-        <v>12.39880592932872</v>
+        <v>4.963205287417082</v>
       </c>
       <c r="G18">
-        <v>0.0005843266967356517</v>
+        <v>0.0008108127107299504</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.331340975466404</v>
       </c>
       <c r="J18">
-        <v>0.5224297216576446</v>
+        <v>0.1326823560358434</v>
       </c>
       <c r="K18">
-        <v>18.58429231374214</v>
+        <v>4.05915367300463</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8041902605151705</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3880827960102948</v>
+        <v>0.0957991837873422</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1633260926187461</v>
+        <v>0.005689291009511876</v>
       </c>
       <c r="E19">
-        <v>0.09458079970484334</v>
+        <v>0.03060611744516173</v>
       </c>
       <c r="F19">
-        <v>12.17969544689157</v>
+        <v>4.931480021772046</v>
       </c>
       <c r="G19">
-        <v>0.0005882891510420693</v>
+        <v>0.0008116542337227509</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.32570746274051</v>
       </c>
       <c r="J19">
-        <v>0.5142928008747418</v>
+        <v>0.1320024477561006</v>
       </c>
       <c r="K19">
-        <v>18.32686755920128</v>
+        <v>4.021119172409499</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.7969551248923139</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4049618901023422</v>
+        <v>0.09828956837525027</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1844622233620967</v>
+        <v>0.005905664852228654</v>
       </c>
       <c r="E20">
-        <v>0.09939381533726177</v>
+        <v>0.03124898976185975</v>
       </c>
       <c r="F20">
-        <v>13.22010306228668</v>
+        <v>5.075048698627626</v>
       </c>
       <c r="G20">
-        <v>0.0005698644523252029</v>
+        <v>0.0008078721672587279</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.351199369183576</v>
       </c>
       <c r="J20">
-        <v>0.5526902352800676</v>
+        <v>0.1350810265615365</v>
       </c>
       <c r="K20">
-        <v>19.5280043003072</v>
+        <v>4.193061941558312</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8296663249403906</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4663814861213211</v>
+        <v>0.1064991835509161</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3047356025645342</v>
+        <v>0.006662364102982821</v>
       </c>
       <c r="E21">
-        <v>0.1207446410539674</v>
+        <v>0.03348656575474962</v>
       </c>
       <c r="F21">
-        <v>18.68936244529806</v>
+        <v>5.572677540711169</v>
       </c>
       <c r="G21">
-        <v>0.0004859176855809773</v>
+        <v>0.0007952339942211491</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.439508150930351</v>
       </c>
       <c r="J21">
-        <v>0.7459381998008041</v>
+        <v>0.1457820619654697</v>
       </c>
       <c r="K21">
-        <v>25.09604252758675</v>
+        <v>4.785855923520558</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9424938620089591</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4663814861213211</v>
+        <v>0.1117356491270485</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3047356025645342</v>
+        <v>0.007183821772542842</v>
       </c>
       <c r="E22">
-        <v>0.1207446410539674</v>
+        <v>0.03501308960855276</v>
       </c>
       <c r="F22">
-        <v>18.68936244529806</v>
+        <v>5.910903798923869</v>
       </c>
       <c r="G22">
-        <v>0.0004859176855809773</v>
+        <v>0.0007870041271118481</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.499469122915031</v>
       </c>
       <c r="J22">
-        <v>0.7459381998008041</v>
+        <v>0.1530769639566785</v>
       </c>
       <c r="K22">
-        <v>25.09604252758675</v>
+        <v>5.186356207266556</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.018751378087316</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4663814861213211</v>
+        <v>0.1089534426208587</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3047356025645342</v>
+        <v>0.006902712642222752</v>
       </c>
       <c r="E23">
-        <v>0.1207446410539674</v>
+        <v>0.03419205293072913</v>
       </c>
       <c r="F23">
-        <v>18.68936244529806</v>
+        <v>5.729084546193491</v>
       </c>
       <c r="G23">
-        <v>0.0004859176855809773</v>
+        <v>0.0007913953136007502</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.467243148951397</v>
       </c>
       <c r="J23">
-        <v>0.7459381998008041</v>
+        <v>0.1491535836290012</v>
       </c>
       <c r="K23">
-        <v>25.09604252758675</v>
+        <v>4.971278633969462</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.9777973544325818</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4663814861213211</v>
+        <v>0.0981533747889145</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3047356025645342</v>
+        <v>0.005893681908247572</v>
       </c>
       <c r="E24">
-        <v>0.1207446410539674</v>
+        <v>0.03121340921551052</v>
       </c>
       <c r="F24">
-        <v>18.68936244529806</v>
+        <v>5.067111032340677</v>
       </c>
       <c r="G24">
-        <v>0.0004859176855809773</v>
+        <v>0.0008080795495965446</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.349790096983767</v>
       </c>
       <c r="J24">
-        <v>0.7459381998008041</v>
+        <v>0.1349107033006902</v>
       </c>
       <c r="K24">
-        <v>25.09604252758675</v>
+        <v>4.183567206230805</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.827859790181293</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4663814861213211</v>
+        <v>0.08602027063892592</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3047356025645342</v>
+        <v>0.004891794812133199</v>
       </c>
       <c r="E25">
-        <v>0.1207446410539674</v>
+        <v>0.02823698116439743</v>
       </c>
       <c r="F25">
-        <v>18.68936244529806</v>
+        <v>4.3988521454975</v>
       </c>
       <c r="G25">
-        <v>0.0004859176855809773</v>
+        <v>0.0008263375535082903</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.231109819454034</v>
       </c>
       <c r="J25">
-        <v>0.7459381998008041</v>
+        <v>0.1206260359229745</v>
       </c>
       <c r="K25">
-        <v>25.09604252758675</v>
+        <v>3.378781678098107</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.6748460112366885</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07673432054070872</v>
+        <v>0.02025219827703495</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00420244800343994</v>
+        <v>0.009188019191155306</v>
       </c>
       <c r="E2">
-        <v>0.02621191246470644</v>
+        <v>0.06840950260453127</v>
       </c>
       <c r="F2">
-        <v>3.936752364173628</v>
+        <v>4.535714456049959</v>
       </c>
       <c r="G2">
-        <v>0.0008401324591561739</v>
+        <v>0.002622642932739561</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.14905937675799</v>
+        <v>1.275920412856571</v>
       </c>
       <c r="J2">
-        <v>0.1108330145184482</v>
+        <v>0.1750878153708513</v>
       </c>
       <c r="K2">
-        <v>2.814282654514784</v>
+        <v>2.024989549009234</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5677130157274277</v>
+        <v>0.5335331956844556</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07024777481844069</v>
+        <v>0.01788570639442355</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003755097682432762</v>
+        <v>0.009125331924932922</v>
       </c>
       <c r="E3">
-        <v>0.02492787511248196</v>
+        <v>0.06855475687318702</v>
       </c>
       <c r="F3">
-        <v>3.638326369362744</v>
+        <v>4.471259589366497</v>
       </c>
       <c r="G3">
-        <v>0.0008497538652597524</v>
+        <v>0.002628467586084825</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.096122787385504</v>
+        <v>1.261105888783113</v>
       </c>
       <c r="J3">
-        <v>0.1045634702446137</v>
+        <v>0.1741598512296605</v>
       </c>
       <c r="K3">
-        <v>2.444864309199858</v>
+        <v>1.949217145640148</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4977430169534003</v>
+        <v>0.5207405224949468</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06617731953380002</v>
+        <v>0.01642031159172319</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003487366143501092</v>
+        <v>0.00909139403914061</v>
       </c>
       <c r="E4">
-        <v>0.02417863430388145</v>
+        <v>0.06867139211482787</v>
       </c>
       <c r="F4">
-        <v>3.461241046712246</v>
+        <v>4.433416738949489</v>
       </c>
       <c r="G4">
-        <v>0.0008558111061353863</v>
+        <v>0.002632230520959587</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.064746502120457</v>
+        <v>1.252247528314491</v>
       </c>
       <c r="J4">
-        <v>0.1008708180253706</v>
+        <v>0.1736507215066538</v>
       </c>
       <c r="K4">
-        <v>2.223289347379676</v>
+        <v>1.904203304309135</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4558493519552727</v>
+        <v>0.5132599846696024</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06449760077550337</v>
+        <v>0.015820145178985</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003379638231155724</v>
+        <v>0.00907870342546957</v>
       </c>
       <c r="E5">
-        <v>0.02388256972392355</v>
+        <v>0.06872583519260722</v>
       </c>
       <c r="F5">
-        <v>3.390473454388967</v>
+        <v>4.418429246569502</v>
       </c>
       <c r="G5">
-        <v>0.0008583191590245277</v>
+        <v>0.002633811029218306</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.052218205421632</v>
+        <v>1.248697003065168</v>
       </c>
       <c r="J5">
-        <v>0.09940222510318364</v>
+        <v>0.1734584699738591</v>
       </c>
       <c r="K5">
-        <v>2.13415128482859</v>
+        <v>1.886237921082028</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4390151110707166</v>
+        <v>0.5103054425265299</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06421744784424277</v>
+        <v>0.01572030943857783</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003361823050898494</v>
+        <v>0.009076664817731839</v>
       </c>
       <c r="E6">
-        <v>0.02383395122889453</v>
+        <v>0.0687352933006693</v>
       </c>
       <c r="F6">
-        <v>3.378802724894541</v>
+        <v>4.415966728131508</v>
       </c>
       <c r="G6">
-        <v>0.0008587380724551374</v>
+        <v>0.002634076319891192</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.050152751289239</v>
+        <v>1.248111010543646</v>
       </c>
       <c r="J6">
-        <v>0.09916046240670795</v>
+        <v>0.1734274654245951</v>
       </c>
       <c r="K6">
-        <v>2.119415242260999</v>
+        <v>1.88327756995497</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4362333094958899</v>
+        <v>0.5098205031493137</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06615474982467617</v>
+        <v>0.01641222957409383</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003485908181543707</v>
+        <v>0.009091218283057145</v>
       </c>
       <c r="E7">
-        <v>0.02417460473514765</v>
+        <v>0.06867209834646815</v>
       </c>
       <c r="F7">
-        <v>3.460281186500367</v>
+        <v>4.433212858619811</v>
       </c>
       <c r="G7">
-        <v>0.0008558447674701899</v>
+        <v>0.002632251645332929</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.064576529690584</v>
+        <v>1.252199405106246</v>
       </c>
       <c r="J7">
-        <v>0.1008508696241179</v>
+        <v>0.1736480671319924</v>
       </c>
       <c r="K7">
-        <v>2.222082728125343</v>
+        <v>1.90395948817806</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4556213955306063</v>
+        <v>0.5132197590790142</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07451663122053276</v>
+        <v>0.01943885717162885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004046523709476446</v>
+        <v>0.009165456482897127</v>
       </c>
       <c r="E8">
-        <v>0.02576067548427474</v>
+        <v>0.06845389581608075</v>
       </c>
       <c r="F8">
-        <v>3.832484063881822</v>
+        <v>4.513129604977081</v>
       </c>
       <c r="G8">
-        <v>0.0008434201449771113</v>
+        <v>0.002624612650010074</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.130556856998048</v>
+        <v>1.270762716520863</v>
       </c>
       <c r="J8">
-        <v>0.108636666577496</v>
+        <v>0.1747552499858003</v>
       </c>
       <c r="K8">
-        <v>2.685713764545</v>
+        <v>1.998548573759024</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5433461771329462</v>
+        <v>0.5290444480914118</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09016593053290478</v>
+        <v>0.02527179798854462</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00522022578397241</v>
+        <v>0.00934742102553443</v>
       </c>
       <c r="E9">
-        <v>0.02921148081884795</v>
+        <v>0.06824336557326305</v>
       </c>
       <c r="F9">
-        <v>4.618731140536823</v>
+        <v>4.683693395193899</v>
       </c>
       <c r="G9">
-        <v>0.000820140436496998</v>
+        <v>0.002611105391631944</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.270163552760593</v>
+        <v>1.30907571751986</v>
       </c>
       <c r="J9">
-        <v>0.1253128947748081</v>
+        <v>0.1774090914594808</v>
       </c>
       <c r="K9">
-        <v>3.644876483749101</v>
+        <v>2.196117998033571</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7254103906400005</v>
+        <v>0.5630604423179051</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1011261953268487</v>
+        <v>0.02948965397224868</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.006159325223869416</v>
+        <v>0.009503684339815521</v>
       </c>
       <c r="E10">
-        <v>0.03200132297591374</v>
+        <v>0.06822071569374621</v>
       </c>
       <c r="F10">
-        <v>5.242683289618043</v>
+        <v>4.817603314499962</v>
       </c>
       <c r="G10">
-        <v>0.0008035371735816386</v>
+        <v>0.002602068809974685</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.380957380565647</v>
+        <v>1.338424411981165</v>
       </c>
       <c r="J10">
-        <v>0.1386809644751281</v>
+        <v>0.1796555645133964</v>
       </c>
       <c r="K10">
-        <v>4.393277517988395</v>
+        <v>2.348787077433144</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8677658633938492</v>
+        <v>0.5898952716009092</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1059744789462584</v>
+        <v>0.03139269984411186</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006611868591289038</v>
+        <v>0.009579762727199181</v>
       </c>
       <c r="E11">
-        <v>0.0333379735274999</v>
+        <v>0.06823898856097621</v>
       </c>
       <c r="F11">
-        <v>5.539710049560654</v>
+        <v>4.880424045692934</v>
       </c>
       <c r="G11">
-        <v>0.0007960507140061615</v>
+        <v>0.00259814820486197</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.433660730099973</v>
+        <v>1.352044329464192</v>
       </c>
       <c r="J11">
-        <v>0.1450718593864693</v>
+        <v>0.1807425348816878</v>
       </c>
       <c r="K11">
-        <v>4.746721850904692</v>
+        <v>2.419906352706334</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.935043500475615</v>
+        <v>0.6025090107102926</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1077884996658014</v>
+        <v>0.03211098132236145</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006787762596850655</v>
+        <v>0.009609296571255754</v>
       </c>
       <c r="E12">
-        <v>0.03385502276636743</v>
+        <v>0.06825000894782285</v>
       </c>
       <c r="F12">
-        <v>5.654387504940672</v>
+        <v>4.904489014340129</v>
       </c>
       <c r="G12">
-        <v>0.0007932212819405926</v>
+        <v>0.002596690747246045</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.453998874087631</v>
+        <v>1.357241096247435</v>
       </c>
       <c r="J12">
-        <v>0.1475429818406511</v>
+        <v>0.1811635346093396</v>
       </c>
       <c r="K12">
-        <v>4.882772884233191</v>
+        <v>2.447079904043733</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9609458233181201</v>
+        <v>0.6073443498402682</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1073988300914479</v>
+        <v>0.03195639323151056</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006749663625779334</v>
+        <v>0.009602903595755663</v>
       </c>
       <c r="E13">
-        <v>0.03374316216428852</v>
+        <v>0.06824745325452319</v>
       </c>
       <c r="F13">
-        <v>5.629586511902062</v>
+        <v>4.899293875726528</v>
       </c>
       <c r="G13">
-        <v>0.0007938304752429434</v>
+        <v>0.002597003429952764</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.4496009069303</v>
+        <v>1.356120127965994</v>
       </c>
       <c r="J13">
-        <v>0.1470083984020221</v>
+        <v>0.1810724466980673</v>
       </c>
       <c r="K13">
-        <v>4.853367612617149</v>
+        <v>2.441216785290919</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9553472468940925</v>
+        <v>0.6063003527494004</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1061241721638879</v>
+        <v>0.03145184121153477</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006626243174128632</v>
+        <v>0.009582177933161518</v>
       </c>
       <c r="E14">
-        <v>0.03338028592349929</v>
+        <v>0.06823981307469218</v>
       </c>
       <c r="F14">
-        <v>5.549098647332642</v>
+        <v>4.882398338164194</v>
       </c>
       <c r="G14">
-        <v>0.0007958178492587898</v>
+        <v>0.002598027754769722</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.435326027875504</v>
+        <v>1.352471082043735</v>
       </c>
       <c r="J14">
-        <v>0.1452740968883646</v>
+        <v>0.1807769824356811</v>
       </c>
       <c r="K14">
-        <v>4.757868435494856</v>
+        <v>2.422137069913845</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9371655703261297</v>
+        <v>0.6029056367233991</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1053404841808643</v>
+        <v>0.0311424779568199</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006551262841256289</v>
+        <v>0.009569577429228815</v>
       </c>
       <c r="E15">
-        <v>0.03315946950901782</v>
+        <v>0.06823566705157624</v>
       </c>
       <c r="F15">
-        <v>5.500093754888525</v>
+        <v>4.872085360532395</v>
       </c>
       <c r="G15">
-        <v>0.0007970357636866869</v>
+        <v>0.002598658719912097</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.426633389854317</v>
+        <v>1.350241056193056</v>
       </c>
       <c r="J15">
-        <v>0.1442186412264164</v>
+        <v>0.1805972256512405</v>
       </c>
       <c r="K15">
-        <v>4.699671148934328</v>
+        <v>2.410481803730192</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9260862569248403</v>
+        <v>0.600833941716985</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1008064044649402</v>
+        <v>0.02936496087475149</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006130332226536694</v>
+        <v>0.009498813476788825</v>
       </c>
       <c r="E16">
-        <v>0.03191542569871508</v>
+        <v>0.06822009582369049</v>
       </c>
       <c r="F16">
-        <v>5.223562226790989</v>
+        <v>4.813536346942158</v>
       </c>
       <c r="G16">
-        <v>0.0008040274370078844</v>
+        <v>0.002602328844057601</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.377563502299907</v>
+        <v>1.33753977590419</v>
       </c>
       <c r="J16">
-        <v>0.1382700710251825</v>
+        <v>0.179585840171633</v>
       </c>
       <c r="K16">
-        <v>4.370468558550044</v>
+        <v>2.344173041728652</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8634250234418133</v>
+        <v>0.5890791418870194</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09798822883916358</v>
+        <v>0.02827042044670947</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.005879175198202802</v>
+        <v>0.009456685647450058</v>
       </c>
       <c r="E17">
-        <v>0.0311703308732536</v>
+        <v>0.06821785640275202</v>
       </c>
       <c r="F17">
-        <v>5.057499437817597</v>
+        <v>4.778107795947307</v>
       </c>
       <c r="G17">
-        <v>0.0008083309294530168</v>
+        <v>0.002604628944124832</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.348083609428386</v>
+        <v>1.329817224463582</v>
       </c>
       <c r="J17">
-        <v>0.1347044788958769</v>
+        <v>0.1789820706117169</v>
       </c>
       <c r="K17">
-        <v>4.172068391281016</v>
+        <v>2.303923853679009</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8256719768049408</v>
+        <v>0.5819722936157063</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09635448193372298</v>
+        <v>0.0276394003678746</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.005737040547591832</v>
+        <v>0.009432924437454915</v>
       </c>
       <c r="E18">
-        <v>0.03074804968921541</v>
+        <v>0.06821925857709488</v>
       </c>
       <c r="F18">
-        <v>4.963205287417082</v>
+        <v>4.75790934751106</v>
       </c>
       <c r="G18">
-        <v>0.0008108127107299504</v>
+        <v>0.002605969810853806</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.331340975466404</v>
+        <v>1.325400710663274</v>
       </c>
       <c r="J18">
-        <v>0.1326823560358434</v>
+        <v>0.1786409179057955</v>
       </c>
       <c r="K18">
-        <v>4.05915367300463</v>
+        <v>2.280930578491166</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8041902605151705</v>
+        <v>0.5779228573386845</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0957991837873422</v>
+        <v>0.02742549869137889</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005689291009511876</v>
+        <v>0.009424959758536744</v>
       </c>
       <c r="E19">
-        <v>0.03060611744516173</v>
+        <v>0.06822019564011761</v>
       </c>
       <c r="F19">
-        <v>4.931480021772046</v>
+        <v>4.751101194990952</v>
       </c>
       <c r="G19">
-        <v>0.0008116542337227509</v>
+        <v>0.002606426886287908</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.32570746274051</v>
+        <v>1.323909683635051</v>
       </c>
       <c r="J19">
-        <v>0.1320024477561006</v>
+        <v>0.1785264594465019</v>
       </c>
       <c r="K19">
-        <v>4.021119172409499</v>
+        <v>2.27317234893826</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7969551248923139</v>
+        <v>0.5765583443574087</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09828956837525027</v>
+        <v>0.02838708898993758</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.005905664852228654</v>
+        <v>0.009461121577153619</v>
       </c>
       <c r="E20">
-        <v>0.03124898976185975</v>
+        <v>0.06821781642617708</v>
       </c>
       <c r="F20">
-        <v>5.075048698627626</v>
+        <v>4.781860671458929</v>
       </c>
       <c r="G20">
-        <v>0.0008078721672587279</v>
+        <v>0.002604382242133938</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.351199369183576</v>
+        <v>1.330636681771622</v>
       </c>
       <c r="J20">
-        <v>0.1350810265615365</v>
+        <v>0.179045709307097</v>
       </c>
       <c r="K20">
-        <v>4.193061941558312</v>
+        <v>2.308192184676386</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8296663249403906</v>
+        <v>0.5827248701236911</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1064991835509161</v>
+        <v>0.03160010528254276</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006662364102982821</v>
+        <v>0.009588245844877719</v>
       </c>
       <c r="E21">
-        <v>0.03348656575474962</v>
+        <v>0.06824194595022703</v>
       </c>
       <c r="F21">
-        <v>5.572677540711169</v>
+        <v>4.887353455013482</v>
       </c>
       <c r="G21">
-        <v>0.0007952339942211491</v>
+        <v>0.002597726149119696</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.439508150930351</v>
+        <v>1.353541827337253</v>
       </c>
       <c r="J21">
-        <v>0.1457820619654697</v>
+        <v>0.1808635123891094</v>
       </c>
       <c r="K21">
-        <v>4.785855923520558</v>
+        <v>2.427734653279117</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9424938620089591</v>
+        <v>0.6039011487713637</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1117356491270485</v>
+        <v>0.03368618836637438</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.007183821772542842</v>
+        <v>0.009675555631222466</v>
       </c>
       <c r="E22">
-        <v>0.03501308960855276</v>
+        <v>0.06828161520226317</v>
       </c>
       <c r="F22">
-        <v>5.910903798923869</v>
+        <v>4.957909610265204</v>
       </c>
       <c r="G22">
-        <v>0.0007870041271118481</v>
+        <v>0.002593534421064751</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.499469122915031</v>
+        <v>1.368740388093144</v>
       </c>
       <c r="J22">
-        <v>0.1530769639566785</v>
+        <v>0.1821062871064711</v>
       </c>
       <c r="K22">
-        <v>5.186356207266556</v>
+        <v>2.507275490975132</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.018751378087316</v>
+        <v>0.6180839110104799</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1089534426208587</v>
+        <v>0.03257410501529279</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006902712642222752</v>
+        <v>0.009628567805521016</v>
       </c>
       <c r="E23">
-        <v>0.03419205293072913</v>
+        <v>0.06825825888934212</v>
       </c>
       <c r="F23">
-        <v>5.729084546193491</v>
+        <v>4.920104341273202</v>
       </c>
       <c r="G23">
-        <v>0.0007913953136007502</v>
+        <v>0.002595757182350722</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.467243148951397</v>
+        <v>1.360607532585888</v>
       </c>
       <c r="J23">
-        <v>0.1491535836290012</v>
+        <v>0.1814379747057089</v>
       </c>
       <c r="K23">
-        <v>4.971278633969462</v>
+        <v>2.464693032895241</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9777973544325818</v>
+        <v>0.6104828174194665</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0981533747889145</v>
+        <v>0.02833434859756778</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.005893681908247572</v>
+        <v>0.00945911466489946</v>
       </c>
       <c r="E24">
-        <v>0.03121340921551052</v>
+        <v>0.06821782612130534</v>
       </c>
       <c r="F24">
-        <v>5.067111032340677</v>
+        <v>4.780163467417964</v>
       </c>
       <c r="G24">
-        <v>0.0008080795495965446</v>
+        <v>0.002604493718380207</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.349790096983767</v>
+        <v>1.330266132637092</v>
       </c>
       <c r="J24">
-        <v>0.1349107033006902</v>
+        <v>0.1790169196837681</v>
       </c>
       <c r="K24">
-        <v>4.183567206230805</v>
+        <v>2.306262016021776</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.827859790181293</v>
+        <v>0.5823845169776405</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.08602027063892592</v>
+        <v>0.02370532763469413</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004891794812133199</v>
+        <v>0.009294259448711983</v>
       </c>
       <c r="E25">
-        <v>0.02823698116439743</v>
+        <v>0.06827710045995516</v>
       </c>
       <c r="F25">
-        <v>4.3988521454975</v>
+        <v>4.636053019398958</v>
       </c>
       <c r="G25">
-        <v>0.0008263375535082903</v>
+        <v>0.002614602894250567</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.231109819454034</v>
+        <v>1.29850285000515</v>
       </c>
       <c r="J25">
-        <v>0.1206260359229745</v>
+        <v>0.1766392344056769</v>
       </c>
       <c r="K25">
-        <v>3.378781678098107</v>
+        <v>2.141361595000831</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6748460112366885</v>
+        <v>0.5535363054245224</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02025219827703495</v>
+        <v>0.07673432054070872</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009188019191155306</v>
+        <v>0.004202448003450598</v>
       </c>
       <c r="E2">
-        <v>0.06840950260453127</v>
+        <v>0.0262119124646798</v>
       </c>
       <c r="F2">
-        <v>4.535714456049959</v>
+        <v>3.9367523641736</v>
       </c>
       <c r="G2">
-        <v>0.002622642932739561</v>
+        <v>0.0008401324590979037</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.275920412856571</v>
+        <v>1.149059376758004</v>
       </c>
       <c r="J2">
-        <v>0.1750878153708513</v>
+        <v>0.1108330145183416</v>
       </c>
       <c r="K2">
-        <v>2.024989549009234</v>
+        <v>2.814282654514642</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5335331956844556</v>
+        <v>0.5677130157274348</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01788570639442355</v>
+        <v>0.07024777481843358</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009125331924932922</v>
+        <v>0.003755097682548225</v>
       </c>
       <c r="E3">
-        <v>0.06855475687318702</v>
+        <v>0.02492787511247663</v>
       </c>
       <c r="F3">
-        <v>4.471259589366497</v>
+        <v>3.638326369362744</v>
       </c>
       <c r="G3">
-        <v>0.002628467586084825</v>
+        <v>0.0008497538653169367</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.261105888783113</v>
+        <v>1.096122787385504</v>
       </c>
       <c r="J3">
-        <v>0.1741598512296605</v>
+        <v>0.1045634702445852</v>
       </c>
       <c r="K3">
-        <v>1.949217145640148</v>
+        <v>2.444864309199829</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5207405224949468</v>
+        <v>0.4977430169534074</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01642031159172319</v>
+        <v>0.06617731953381423</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00909139403914061</v>
+        <v>0.003487366143517079</v>
       </c>
       <c r="E4">
-        <v>0.06867139211482787</v>
+        <v>0.02417863430385658</v>
       </c>
       <c r="F4">
-        <v>4.433416738949489</v>
+        <v>3.461241046712189</v>
       </c>
       <c r="G4">
-        <v>0.002632230520959587</v>
+        <v>0.0008558111061403736</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.252247528314491</v>
+        <v>1.064746502120464</v>
       </c>
       <c r="J4">
-        <v>0.1736507215066538</v>
+        <v>0.1008708180254061</v>
       </c>
       <c r="K4">
-        <v>1.904203304309135</v>
+        <v>2.22328934737962</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5132599846696024</v>
+        <v>0.4558493519552513</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.015820145178985</v>
+        <v>0.06449760077549627</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00907870342546957</v>
+        <v>0.003379638231148618</v>
       </c>
       <c r="E5">
-        <v>0.06872583519260722</v>
+        <v>0.0238825697239502</v>
       </c>
       <c r="F5">
-        <v>4.418429246569502</v>
+        <v>3.390473454388939</v>
       </c>
       <c r="G5">
-        <v>0.002633811029218306</v>
+        <v>0.0008583191590235922</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.248697003065168</v>
+        <v>1.05221820542166</v>
       </c>
       <c r="J5">
-        <v>0.1734584699738591</v>
+        <v>0.09940222510316943</v>
       </c>
       <c r="K5">
-        <v>1.886237921082028</v>
+        <v>2.134151284828448</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5103054425265299</v>
+        <v>0.4390151110707237</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01572030943857783</v>
+        <v>0.06421744784432093</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009076664817731839</v>
+        <v>0.003361823050775925</v>
       </c>
       <c r="E6">
-        <v>0.0687352933006693</v>
+        <v>0.02383395122889276</v>
       </c>
       <c r="F6">
-        <v>4.415966728131508</v>
+        <v>3.378802724894513</v>
       </c>
       <c r="G6">
-        <v>0.002634076319891192</v>
+        <v>0.0008587380724545875</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.248111010543646</v>
+        <v>1.050152751289247</v>
       </c>
       <c r="J6">
-        <v>0.1734274654245951</v>
+        <v>0.09916046240658716</v>
       </c>
       <c r="K6">
-        <v>1.88327756995497</v>
+        <v>2.119415242260914</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5098205031493137</v>
+        <v>0.4362333094958899</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01641222957409383</v>
+        <v>0.06615474982467617</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009091218283057145</v>
+        <v>0.003485908181184882</v>
       </c>
       <c r="E7">
-        <v>0.06867209834646815</v>
+        <v>0.02417460473514765</v>
       </c>
       <c r="F7">
-        <v>4.433212858619811</v>
+        <v>3.460281186500367</v>
       </c>
       <c r="G7">
-        <v>0.002632251645332929</v>
+        <v>0.0008558447674706632</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.252199405106246</v>
+        <v>1.064576529690584</v>
       </c>
       <c r="J7">
-        <v>0.1736480671319924</v>
+        <v>0.1008508696242387</v>
       </c>
       <c r="K7">
-        <v>1.90395948817806</v>
+        <v>2.222082728125343</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5132197590790142</v>
+        <v>0.4556213955305992</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01943885717162885</v>
+        <v>0.07451663122057539</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009165456482897127</v>
+        <v>0.00404652370958658</v>
       </c>
       <c r="E8">
-        <v>0.06845389581608075</v>
+        <v>0.02576067548420014</v>
       </c>
       <c r="F8">
-        <v>4.513129604977081</v>
+        <v>3.83248406388185</v>
       </c>
       <c r="G8">
-        <v>0.002624612650010074</v>
+        <v>0.0008434201450482809</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.270762716520863</v>
+        <v>1.130556856998048</v>
       </c>
       <c r="J8">
-        <v>0.1747552499858003</v>
+        <v>0.1086366665775813</v>
       </c>
       <c r="K8">
-        <v>1.998548573759024</v>
+        <v>2.685713764545</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5290444480914118</v>
+        <v>0.5433461771329462</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02527179798854462</v>
+        <v>0.09016593053288346</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00934742102553443</v>
+        <v>0.005220225783588717</v>
       </c>
       <c r="E9">
-        <v>0.06824336557326305</v>
+        <v>0.02921148081884972</v>
       </c>
       <c r="F9">
-        <v>4.683693395193899</v>
+        <v>4.618731140536795</v>
       </c>
       <c r="G9">
-        <v>0.002611105391631944</v>
+        <v>0.0008201404366319362</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.30907571751986</v>
+        <v>1.270163552760579</v>
       </c>
       <c r="J9">
-        <v>0.1774090914594808</v>
+        <v>0.1253128947748152</v>
       </c>
       <c r="K9">
-        <v>2.196117998033571</v>
+        <v>3.644876483749044</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5630604423179051</v>
+        <v>0.7254103906399934</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02948965397224868</v>
+        <v>0.1011261953268061</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009503684339815521</v>
+        <v>0.006159325223890733</v>
       </c>
       <c r="E10">
-        <v>0.06822071569374621</v>
+        <v>0.03200132297589242</v>
       </c>
       <c r="F10">
-        <v>4.817603314499962</v>
+        <v>5.242683289617986</v>
       </c>
       <c r="G10">
-        <v>0.002602068809974685</v>
+        <v>0.000803537173667775</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.338424411981165</v>
+        <v>1.380957380565647</v>
       </c>
       <c r="J10">
-        <v>0.1796555645133964</v>
+        <v>0.1386809644750997</v>
       </c>
       <c r="K10">
-        <v>2.348787077433144</v>
+        <v>4.393277517988452</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5898952716009092</v>
+        <v>0.8677658633938421</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03139269984411186</v>
+        <v>0.1059744789464077</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.009579762727199181</v>
+        <v>0.006611868591267722</v>
       </c>
       <c r="E11">
-        <v>0.06823898856097621</v>
+        <v>0.03333797352749279</v>
       </c>
       <c r="F11">
-        <v>4.880424045692934</v>
+        <v>5.539710049560682</v>
       </c>
       <c r="G11">
-        <v>0.00259814820486197</v>
+        <v>0.0007960507139454214</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.352044329464192</v>
+        <v>1.433660730099987</v>
       </c>
       <c r="J11">
-        <v>0.1807425348816878</v>
+        <v>0.1450718593864053</v>
       </c>
       <c r="K11">
-        <v>2.419906352706334</v>
+        <v>4.746721850904976</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6025090107102926</v>
+        <v>0.935043500475615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03211098132236145</v>
+        <v>0.1077884996657019</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009609296571255754</v>
+        <v>0.006787762597252112</v>
       </c>
       <c r="E12">
-        <v>0.06825000894782285</v>
+        <v>0.03385502276639762</v>
       </c>
       <c r="F12">
-        <v>4.904489014340129</v>
+        <v>5.654387504940672</v>
       </c>
       <c r="G12">
-        <v>0.002596690747246045</v>
+        <v>0.0007932212819122677</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.357241096247435</v>
+        <v>1.453998874087659</v>
       </c>
       <c r="J12">
-        <v>0.1811635346093396</v>
+        <v>0.1475429818407363</v>
       </c>
       <c r="K12">
-        <v>2.447079904043733</v>
+        <v>4.882772884233077</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6073443498402682</v>
+        <v>0.9609458233181414</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03195639323151056</v>
+        <v>0.1073988300914195</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009602903595755663</v>
+        <v>0.006749663625608804</v>
       </c>
       <c r="E13">
-        <v>0.06824745325452319</v>
+        <v>0.03374316216428674</v>
       </c>
       <c r="F13">
-        <v>4.899293875726528</v>
+        <v>5.629586511902062</v>
       </c>
       <c r="G13">
-        <v>0.002597003429952764</v>
+        <v>0.0007938304752992439</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.356120127965994</v>
+        <v>1.449600906930286</v>
       </c>
       <c r="J13">
-        <v>0.1810724466980673</v>
+        <v>0.1470083984020079</v>
       </c>
       <c r="K13">
-        <v>2.441216785290919</v>
+        <v>4.853367612617262</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6063003527494004</v>
+        <v>0.9553472468940925</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03145184121153477</v>
+        <v>0.1061241721637742</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.009582177933161518</v>
+        <v>0.006626243173950996</v>
       </c>
       <c r="E14">
-        <v>0.06823981307469218</v>
+        <v>0.03338028592352416</v>
       </c>
       <c r="F14">
-        <v>4.882398338164194</v>
+        <v>5.549098647332642</v>
       </c>
       <c r="G14">
-        <v>0.002598027754769722</v>
+        <v>0.0007958178491995039</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.352471082043735</v>
+        <v>1.435326027875547</v>
       </c>
       <c r="J14">
-        <v>0.1807769824356811</v>
+        <v>0.145274096888258</v>
       </c>
       <c r="K14">
-        <v>2.422137069913845</v>
+        <v>4.757868435494856</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6029056367233991</v>
+        <v>0.9371655703261155</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0311424779568199</v>
+        <v>0.1053404841809709</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.009569577429228815</v>
+        <v>0.006551262841014704</v>
       </c>
       <c r="E15">
-        <v>0.06823566705157624</v>
+        <v>0.03315946950901072</v>
       </c>
       <c r="F15">
-        <v>4.872085360532395</v>
+        <v>5.500093754888496</v>
       </c>
       <c r="G15">
-        <v>0.002598658719912097</v>
+        <v>0.0007970357636848391</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.350241056193056</v>
+        <v>1.426633389854317</v>
       </c>
       <c r="J15">
-        <v>0.1805972256512405</v>
+        <v>0.1442186412261961</v>
       </c>
       <c r="K15">
-        <v>2.410481803730192</v>
+        <v>4.699671148934272</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.600833941716985</v>
+        <v>0.9260862569248474</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02936496087475149</v>
+        <v>0.1008064044650538</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.009498813476788825</v>
+        <v>0.006130332226806701</v>
       </c>
       <c r="E16">
-        <v>0.06822009582369049</v>
+        <v>0.03191542569869554</v>
       </c>
       <c r="F16">
-        <v>4.813536346942158</v>
+        <v>5.22356222679096</v>
       </c>
       <c r="G16">
-        <v>0.002602328844057601</v>
+        <v>0.0008040274370143287</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.33753977590419</v>
+        <v>1.377563502299893</v>
       </c>
       <c r="J16">
-        <v>0.179585840171633</v>
+        <v>0.1382700710251683</v>
       </c>
       <c r="K16">
-        <v>2.344173041728652</v>
+        <v>4.370468558549987</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5890791418870194</v>
+        <v>0.8634250234418133</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02827042044670947</v>
+        <v>0.09798822883915648</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009456685647450058</v>
+        <v>0.005879175198195696</v>
       </c>
       <c r="E17">
-        <v>0.06821785640275202</v>
+        <v>0.03117033087328913</v>
       </c>
       <c r="F17">
-        <v>4.778107795947307</v>
+        <v>5.057499437817597</v>
       </c>
       <c r="G17">
-        <v>0.002604628944124832</v>
+        <v>0.0008083309295322816</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.329817224463582</v>
+        <v>1.348083609428372</v>
       </c>
       <c r="J17">
-        <v>0.1789820706117169</v>
+        <v>0.1347044788958698</v>
       </c>
       <c r="K17">
-        <v>2.303923853679009</v>
+        <v>4.172068391281186</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5819722936157063</v>
+        <v>0.825671976804955</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0276394003678746</v>
+        <v>0.09635448193370166</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.009432924437454915</v>
+        <v>0.005737040547591832</v>
       </c>
       <c r="E18">
-        <v>0.06821925857709488</v>
+        <v>0.03074804968921718</v>
       </c>
       <c r="F18">
-        <v>4.75790934751106</v>
+        <v>4.963205287417111</v>
       </c>
       <c r="G18">
-        <v>0.002605969810853806</v>
+        <v>0.0008108127106726661</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.325400710663274</v>
+        <v>1.331340975466404</v>
       </c>
       <c r="J18">
-        <v>0.1786409179057955</v>
+        <v>0.1326823560355734</v>
       </c>
       <c r="K18">
-        <v>2.280930578491166</v>
+        <v>4.059153673004744</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5779228573386845</v>
+        <v>0.8041902605151563</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.02742549869137889</v>
+        <v>0.09579918378724983</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009424959758536744</v>
+        <v>0.005689291009353781</v>
       </c>
       <c r="E19">
-        <v>0.06822019564011761</v>
+        <v>0.03060611744516351</v>
       </c>
       <c r="F19">
-        <v>4.751101194990952</v>
+        <v>4.931480021772018</v>
       </c>
       <c r="G19">
-        <v>0.002606426886287908</v>
+        <v>0.0008116542338604203</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.323909683635051</v>
+        <v>1.325707462740496</v>
       </c>
       <c r="J19">
-        <v>0.1785264594465019</v>
+        <v>0.1320024477561859</v>
       </c>
       <c r="K19">
-        <v>2.27317234893826</v>
+        <v>4.021119172409499</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5765583443574087</v>
+        <v>0.7969551248923068</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02838708898993758</v>
+        <v>0.09828956837514369</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009461121577153619</v>
+        <v>0.005905664852416947</v>
       </c>
       <c r="E20">
-        <v>0.06821781642617708</v>
+        <v>0.03124898976193968</v>
       </c>
       <c r="F20">
-        <v>4.781860671458929</v>
+        <v>5.075048698627597</v>
       </c>
       <c r="G20">
-        <v>0.002604382242133938</v>
+        <v>0.0008078721672404829</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.330636681771622</v>
+        <v>1.35119936918359</v>
       </c>
       <c r="J20">
-        <v>0.179045709307097</v>
+        <v>0.1350810265616005</v>
       </c>
       <c r="K20">
-        <v>2.308192184676386</v>
+        <v>4.193061941558256</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5827248701236911</v>
+        <v>0.829666324940419</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03160010528254276</v>
+        <v>0.1064991835508593</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.009588245844877719</v>
+        <v>0.006662364103032559</v>
       </c>
       <c r="E21">
-        <v>0.06824194595022703</v>
+        <v>0.03348656575471587</v>
       </c>
       <c r="F21">
-        <v>4.887353455013482</v>
+        <v>5.572677540711169</v>
       </c>
       <c r="G21">
-        <v>0.002597726149119696</v>
+        <v>0.0007952339943047609</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.353541827337253</v>
+        <v>1.439508150930337</v>
       </c>
       <c r="J21">
-        <v>0.1808635123891094</v>
+        <v>0.1457820619654555</v>
       </c>
       <c r="K21">
-        <v>2.427734653279117</v>
+        <v>4.785855923520671</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6039011487713637</v>
+        <v>0.9424938620089662</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03368618836637438</v>
+        <v>0.1117356491270911</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009675555631222466</v>
+        <v>0.007183821772606791</v>
       </c>
       <c r="E22">
-        <v>0.06828161520226317</v>
+        <v>0.03501308960852967</v>
       </c>
       <c r="F22">
-        <v>4.957909610265204</v>
+        <v>5.91090379892384</v>
       </c>
       <c r="G22">
-        <v>0.002593534421064751</v>
+        <v>0.0007870041269698132</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.368740388093144</v>
+        <v>1.499469122915031</v>
       </c>
       <c r="J22">
-        <v>0.1821062871064711</v>
+        <v>0.1530769639568064</v>
       </c>
       <c r="K22">
-        <v>2.507275490975132</v>
+        <v>5.186356207266613</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6180839110104799</v>
+        <v>1.018751378087295</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03257410501529279</v>
+        <v>0.1089534426209653</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009628567805521016</v>
+        <v>0.006902712642212094</v>
       </c>
       <c r="E23">
-        <v>0.06825825888934212</v>
+        <v>0.03419205293077532</v>
       </c>
       <c r="F23">
-        <v>4.920104341273202</v>
+        <v>5.729084546193491</v>
       </c>
       <c r="G23">
-        <v>0.002595757182350722</v>
+        <v>0.0007913953135992057</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.360607532585888</v>
+        <v>1.467243148951397</v>
       </c>
       <c r="J23">
-        <v>0.1814379747057089</v>
+        <v>0.1491535836288804</v>
       </c>
       <c r="K23">
-        <v>2.464693032895241</v>
+        <v>4.971278633969632</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6104828174194665</v>
+        <v>0.977797354432596</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.02833434859756778</v>
+        <v>0.09815337478897135</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00945911466489946</v>
+        <v>0.0058936819080877</v>
       </c>
       <c r="E24">
-        <v>0.06821782612130534</v>
+        <v>0.03121340921548388</v>
       </c>
       <c r="F24">
-        <v>4.780163467417964</v>
+        <v>5.067111032340677</v>
       </c>
       <c r="G24">
-        <v>0.002604493718380207</v>
+        <v>0.0008080795495729362</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.330266132637092</v>
+        <v>1.349790096983781</v>
       </c>
       <c r="J24">
-        <v>0.1790169196837681</v>
+        <v>0.1349107033006902</v>
       </c>
       <c r="K24">
-        <v>2.306262016021776</v>
+        <v>4.183567206230805</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5823845169776405</v>
+        <v>0.8278597901813001</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.02370532763469413</v>
+        <v>0.08602027063891171</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009294259448711983</v>
+        <v>0.004891794812124317</v>
       </c>
       <c r="E25">
-        <v>0.06827710045995516</v>
+        <v>0.02823698116435303</v>
       </c>
       <c r="F25">
-        <v>4.636053019398958</v>
+        <v>4.3988521454975</v>
       </c>
       <c r="G25">
-        <v>0.002614602894250567</v>
+        <v>0.0008263375534478368</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.29850285000515</v>
+        <v>1.231109819454041</v>
       </c>
       <c r="J25">
-        <v>0.1766392344056769</v>
+        <v>0.120626035923074</v>
       </c>
       <c r="K25">
-        <v>2.141361595000831</v>
+        <v>3.378781678097994</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5535363054245224</v>
+        <v>0.6748460112366814</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07673432054070872</v>
+        <v>0.2053579126503138</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004202448003450598</v>
+        <v>0.1382994732640981</v>
       </c>
       <c r="E2">
-        <v>0.0262119124646798</v>
+        <v>0.1683759874795641</v>
       </c>
       <c r="F2">
-        <v>3.9367523641736</v>
+        <v>1.374528723743964</v>
       </c>
       <c r="G2">
-        <v>0.0008401324590979037</v>
+        <v>1.000452723538601</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001346036832190478</v>
       </c>
       <c r="I2">
-        <v>1.149059376758004</v>
+        <v>0.0114737480552769</v>
       </c>
       <c r="J2">
-        <v>0.1108330145183416</v>
+        <v>0.6611087812258916</v>
       </c>
       <c r="K2">
-        <v>2.814282654514642</v>
+        <v>0.3402124447162382</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.23280902849109</v>
       </c>
       <c r="M2">
-        <v>0.5677130157274348</v>
+        <v>2.942253056131108</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07024777481843358</v>
+        <v>0.1790318459391642</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003755097682548225</v>
+        <v>0.1213874589093393</v>
       </c>
       <c r="E3">
-        <v>0.02492787511247663</v>
+        <v>0.1480352369708839</v>
       </c>
       <c r="F3">
-        <v>3.638326369362744</v>
+        <v>1.278949225569221</v>
       </c>
       <c r="G3">
-        <v>0.0008497538653169367</v>
+        <v>0.9303014239688139</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0009573025272691105</v>
       </c>
       <c r="I3">
-        <v>1.096122787385504</v>
+        <v>0.01357348376213041</v>
       </c>
       <c r="J3">
-        <v>0.1045634702445852</v>
+        <v>0.6341549592620765</v>
       </c>
       <c r="K3">
-        <v>2.444864309199829</v>
+        <v>0.3522479322097789</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2049115705398847</v>
       </c>
       <c r="M3">
-        <v>0.4977430169534074</v>
+        <v>2.558678598634998</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06617731953381423</v>
+        <v>0.1625638955104307</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003487366143517079</v>
+        <v>0.1110870274565485</v>
       </c>
       <c r="E4">
-        <v>0.02417863430385658</v>
+        <v>0.1356041150625344</v>
       </c>
       <c r="F4">
-        <v>3.461241046712189</v>
+        <v>1.221172399875144</v>
       </c>
       <c r="G4">
-        <v>0.0008558111061403736</v>
+        <v>0.8880951403308615</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001866293749357206</v>
       </c>
       <c r="I4">
-        <v>1.064746502120464</v>
+        <v>0.01502878110467742</v>
       </c>
       <c r="J4">
-        <v>0.1008708180254061</v>
+        <v>0.6181287894350476</v>
       </c>
       <c r="K4">
-        <v>2.22328934737962</v>
+        <v>0.3597830865519009</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1878282005670613</v>
       </c>
       <c r="M4">
-        <v>0.4558493519552513</v>
+        <v>2.324934675804514</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06449760077549627</v>
+        <v>0.1551307239761712</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003379638231148618</v>
+        <v>0.1070578890821139</v>
       </c>
       <c r="E5">
-        <v>0.0238825697239502</v>
+        <v>0.1305955921846831</v>
       </c>
       <c r="F5">
-        <v>3.390473454388939</v>
+        <v>1.196565010066692</v>
       </c>
       <c r="G5">
-        <v>0.0008583191590235922</v>
+        <v>0.8698305980677503</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002332999332678387</v>
       </c>
       <c r="I5">
-        <v>1.05221820542166</v>
+        <v>0.01575384291777704</v>
       </c>
       <c r="J5">
-        <v>0.09940222510316943</v>
+        <v>0.6110644058594232</v>
       </c>
       <c r="K5">
-        <v>2.134151284828448</v>
+        <v>0.362424283216666</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1808395827871934</v>
       </c>
       <c r="M5">
-        <v>0.4390151110707237</v>
+        <v>2.233035241499067</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06421744784432093</v>
+        <v>0.1531015325662111</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003361823050775925</v>
+        <v>0.1065736005717355</v>
       </c>
       <c r="E6">
-        <v>0.02383395122889276</v>
+        <v>0.1298208034662736</v>
       </c>
       <c r="F6">
-        <v>3.378802724894513</v>
+        <v>1.190939184670924</v>
       </c>
       <c r="G6">
-        <v>0.0008587380724545875</v>
+        <v>0.8652668626700688</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002416709068023604</v>
       </c>
       <c r="I6">
-        <v>1.050152751289247</v>
+        <v>0.01599597250950513</v>
       </c>
       <c r="J6">
-        <v>0.09916046240658716</v>
+        <v>0.6090971690444178</v>
       </c>
       <c r="K6">
-        <v>2.119415242260914</v>
+        <v>0.362302595012407</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1796379981097118</v>
       </c>
       <c r="M6">
-        <v>0.4362333094958899</v>
+        <v>2.221423991244848</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06615474982467617</v>
+        <v>0.1602950131998284</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003485908181184882</v>
+        <v>0.111535262506564</v>
       </c>
       <c r="E7">
-        <v>0.02417460473514765</v>
+        <v>0.1356906849018742</v>
       </c>
       <c r="F7">
-        <v>3.460281186500367</v>
+        <v>1.216604138090759</v>
       </c>
       <c r="G7">
-        <v>0.0008558447674706632</v>
+        <v>0.8836377664395911</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001873558201173964</v>
       </c>
       <c r="I7">
-        <v>1.064576529690584</v>
+        <v>0.01534722034514768</v>
       </c>
       <c r="J7">
-        <v>0.1008508696242387</v>
+        <v>0.6158477660640926</v>
       </c>
       <c r="K7">
-        <v>2.222082728125343</v>
+        <v>0.3582882252084705</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1876206007568157</v>
       </c>
       <c r="M7">
-        <v>0.4556213955305992</v>
+        <v>2.333617264991091</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07451663122057539</v>
+        <v>0.1934436044322041</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00404652370958658</v>
+        <v>0.1331195217321124</v>
       </c>
       <c r="E8">
-        <v>0.02576067548420014</v>
+        <v>0.1615544757933733</v>
       </c>
       <c r="F8">
-        <v>3.83248406388185</v>
+        <v>1.335779415191709</v>
       </c>
       <c r="G8">
-        <v>0.0008434201450482809</v>
+        <v>0.9705149261776569</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0003315811722885975</v>
       </c>
       <c r="I8">
-        <v>1.130556856998048</v>
+        <v>0.01253374881402181</v>
       </c>
       <c r="J8">
-        <v>0.1086366665775813</v>
+        <v>0.6488256495884031</v>
       </c>
       <c r="K8">
-        <v>2.685713764545</v>
+        <v>0.3423597461278476</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2230267132303183</v>
       </c>
       <c r="M8">
-        <v>0.5433461771329462</v>
+        <v>2.822829019664255</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09016593053288346</v>
+        <v>0.2599208889797922</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005220225783588717</v>
+        <v>0.1753251127631898</v>
       </c>
       <c r="E9">
-        <v>0.02921148081884972</v>
+        <v>0.2126158163886274</v>
       </c>
       <c r="F9">
-        <v>4.618731140536795</v>
+        <v>1.585355676109486</v>
       </c>
       <c r="G9">
-        <v>0.0008201404366319362</v>
+        <v>1.156317492420399</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007856679796227617</v>
       </c>
       <c r="I9">
-        <v>1.270163552760579</v>
+        <v>0.007932180517959964</v>
       </c>
       <c r="J9">
-        <v>0.1253128947748152</v>
+        <v>0.7220057598138112</v>
       </c>
       <c r="K9">
-        <v>3.644876483749044</v>
+        <v>0.3149674967260836</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2932512280512469</v>
       </c>
       <c r="M9">
-        <v>0.7254103906399934</v>
+        <v>3.780810154196672</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1011261953268061</v>
+        <v>0.3090968210964036</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.006159325223890733</v>
+        <v>0.2029500008144254</v>
       </c>
       <c r="E10">
-        <v>0.03200132297589242</v>
+        <v>0.2413894208885239</v>
       </c>
       <c r="F10">
-        <v>5.242683289617986</v>
+        <v>1.740669114400134</v>
       </c>
       <c r="G10">
-        <v>0.000803537173667775</v>
+        <v>1.272412873988827</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003620048784036989</v>
       </c>
       <c r="I10">
-        <v>1.380957380565647</v>
+        <v>0.005683127559121814</v>
       </c>
       <c r="J10">
-        <v>0.1386809644750997</v>
+        <v>0.7659169770293488</v>
       </c>
       <c r="K10">
-        <v>4.393277517988452</v>
+        <v>0.2922803338109414</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3295793251479751</v>
       </c>
       <c r="M10">
-        <v>0.8677658633938421</v>
+        <v>4.488011061558382</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1059744789464077</v>
+        <v>0.3546797251299552</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006611868591267722</v>
+        <v>0.1802310788294648</v>
       </c>
       <c r="E11">
-        <v>0.03333797352749279</v>
+        <v>0.1797063394213794</v>
       </c>
       <c r="F11">
-        <v>5.539710049560682</v>
+        <v>1.531400777452717</v>
       </c>
       <c r="G11">
-        <v>0.0007960507139454214</v>
+        <v>1.112395606010182</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02222025108918046</v>
       </c>
       <c r="I11">
-        <v>1.433660730099987</v>
+        <v>0.005611550102337937</v>
       </c>
       <c r="J11">
-        <v>0.1450718593864053</v>
+        <v>0.679678206055371</v>
       </c>
       <c r="K11">
-        <v>4.746721850904976</v>
+        <v>0.261868270918475</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2235049332362493</v>
       </c>
       <c r="M11">
-        <v>0.935043500475615</v>
+        <v>4.693011647470087</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1077884996657019</v>
+        <v>0.3882879586645487</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006787762597252112</v>
+        <v>0.1559265922449811</v>
       </c>
       <c r="E12">
-        <v>0.03385502276639762</v>
+        <v>0.1305553262749015</v>
       </c>
       <c r="F12">
-        <v>5.654387504940672</v>
+        <v>1.33898677896336</v>
       </c>
       <c r="G12">
-        <v>0.0007932212819122677</v>
+        <v>0.9673229350000412</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06048012651567802</v>
       </c>
       <c r="I12">
-        <v>1.453998874087659</v>
+        <v>0.005469798405103532</v>
       </c>
       <c r="J12">
-        <v>0.1475429818407363</v>
+        <v>0.6045984781731022</v>
       </c>
       <c r="K12">
-        <v>4.882772884233077</v>
+        <v>0.2482188315136646</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1474818113619776</v>
       </c>
       <c r="M12">
-        <v>0.9609458233181414</v>
+        <v>4.696878166042552</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1073988300914195</v>
+        <v>0.4108025985083259</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006749663625608804</v>
+        <v>0.1299700481722965</v>
       </c>
       <c r="E13">
-        <v>0.03374316216428674</v>
+        <v>0.08874287521344471</v>
       </c>
       <c r="F13">
-        <v>5.629586511902062</v>
+        <v>1.14257775311664</v>
       </c>
       <c r="G13">
-        <v>0.0007938304752992439</v>
+        <v>0.8191877793715605</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1154728542885408</v>
       </c>
       <c r="I13">
-        <v>1.449600906930286</v>
+        <v>0.00566730674381688</v>
       </c>
       <c r="J13">
-        <v>0.1470083984020079</v>
+        <v>0.5304843638174503</v>
       </c>
       <c r="K13">
-        <v>4.853367612617262</v>
+        <v>0.244025086296725</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09036951781796176</v>
       </c>
       <c r="M13">
-        <v>0.9553472468940925</v>
+        <v>4.561948124972332</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1061241721637742</v>
+        <v>0.4207741038376298</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006626243173950996</v>
+        <v>0.1115737739903011</v>
       </c>
       <c r="E14">
-        <v>0.03338028592352416</v>
+        <v>0.06433996344253501</v>
       </c>
       <c r="F14">
-        <v>5.549098647332642</v>
+        <v>1.005125820786816</v>
       </c>
       <c r="G14">
-        <v>0.0007958178491995039</v>
+        <v>0.7152795412713004</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1642146472900805</v>
       </c>
       <c r="I14">
-        <v>1.435326027875547</v>
+        <v>0.006057040323136142</v>
       </c>
       <c r="J14">
-        <v>0.145274096888258</v>
+        <v>0.4795197057880927</v>
       </c>
       <c r="K14">
-        <v>4.757868435494856</v>
+        <v>0.2458347180503395</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06208122007000227</v>
       </c>
       <c r="M14">
-        <v>0.9371655703261155</v>
+        <v>4.408508058161033</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1053404841809709</v>
+        <v>0.4194647526741591</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006551262841014704</v>
+        <v>0.1067389400274052</v>
       </c>
       <c r="E15">
-        <v>0.03315946950901072</v>
+        <v>0.0588575320478899</v>
       </c>
       <c r="F15">
-        <v>5.500093754888496</v>
+        <v>0.9685632681282215</v>
       </c>
       <c r="G15">
-        <v>0.0007970357636848391</v>
+        <v>0.6873275787118018</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1764888660502635</v>
       </c>
       <c r="I15">
-        <v>1.426633389854317</v>
+        <v>0.006363277157913849</v>
       </c>
       <c r="J15">
-        <v>0.1442186412261961</v>
+        <v>0.4663231931844081</v>
       </c>
       <c r="K15">
-        <v>4.699671148934272</v>
+        <v>0.2476279238389321</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05656260297105042</v>
       </c>
       <c r="M15">
-        <v>0.9260862569248474</v>
+        <v>4.346249444542821</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1008064044650538</v>
+        <v>0.3913422333674959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006130332226806701</v>
+        <v>0.1011991660656619</v>
       </c>
       <c r="E16">
-        <v>0.03191542569869554</v>
+        <v>0.05659602548766252</v>
       </c>
       <c r="F16">
-        <v>5.22356222679096</v>
+        <v>0.943513355980258</v>
       </c>
       <c r="G16">
-        <v>0.0008040274370143287</v>
+        <v>0.6678046971775586</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1627966388864905</v>
       </c>
       <c r="I16">
-        <v>1.377563502299893</v>
+        <v>0.007388317926160681</v>
       </c>
       <c r="J16">
-        <v>0.1382700710251683</v>
+        <v>0.4622751940461285</v>
       </c>
       <c r="K16">
-        <v>4.370468558549987</v>
+        <v>0.2566410467930131</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05483692544410701</v>
       </c>
       <c r="M16">
-        <v>0.8634250234418133</v>
+        <v>4.077588654087492</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09798822883915648</v>
+        <v>0.3644796180376915</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.005879175198195696</v>
+        <v>0.106467446216314</v>
       </c>
       <c r="E17">
-        <v>0.03117033087328913</v>
+        <v>0.06673328749466378</v>
       </c>
       <c r="F17">
-        <v>5.057499437817597</v>
+        <v>0.9954982908830203</v>
       </c>
       <c r="G17">
-        <v>0.0008083309295322816</v>
+        <v>0.7067066636693369</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1246177024946462</v>
       </c>
       <c r="I17">
-        <v>1.348083609428372</v>
+        <v>0.008010445125534282</v>
       </c>
       <c r="J17">
-        <v>0.1347044788958698</v>
+        <v>0.4856843389750622</v>
       </c>
       <c r="K17">
-        <v>4.172068391281186</v>
+        <v>0.2622775008403888</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06625583243717514</v>
       </c>
       <c r="M17">
-        <v>0.825671976804955</v>
+        <v>3.953629020980088</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09635448193370166</v>
+        <v>0.3385002875060081</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.005737040547591832</v>
+        <v>0.1221475059412285</v>
       </c>
       <c r="E18">
-        <v>0.03074804968921718</v>
+        <v>0.09326915534089153</v>
       </c>
       <c r="F18">
-        <v>4.963205287417111</v>
+        <v>1.128273628768554</v>
       </c>
       <c r="G18">
-        <v>0.0008108127106726661</v>
+        <v>0.8074201521829423</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07176438529425866</v>
       </c>
       <c r="I18">
-        <v>1.331340975466404</v>
+        <v>0.007980066221896287</v>
       </c>
       <c r="J18">
-        <v>0.1326823560355734</v>
+        <v>0.5388286472399386</v>
       </c>
       <c r="K18">
-        <v>4.059153673004744</v>
+        <v>0.2682885628348385</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1007070826815308</v>
       </c>
       <c r="M18">
-        <v>0.8041902605151563</v>
+        <v>3.929808743285491</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09579918378724983</v>
+        <v>0.3113077718733734</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005689291009353781</v>
+        <v>0.1473093684778775</v>
       </c>
       <c r="E19">
-        <v>0.03060611744516351</v>
+        <v>0.1384938934511446</v>
       </c>
       <c r="F19">
-        <v>4.931480021772018</v>
+        <v>1.320462605981788</v>
       </c>
       <c r="G19">
-        <v>0.0008116542338604203</v>
+        <v>0.9522172112311154</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02689190249922291</v>
       </c>
       <c r="I19">
-        <v>1.325707462740496</v>
+        <v>0.008008269723976724</v>
       </c>
       <c r="J19">
-        <v>0.1320024477561859</v>
+        <v>0.6124505697242313</v>
       </c>
       <c r="K19">
-        <v>4.021119172409499</v>
+        <v>0.277294222994509</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1669950904313851</v>
       </c>
       <c r="M19">
-        <v>0.7969551248923068</v>
+        <v>4.00680465371039</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09828956837514369</v>
+        <v>0.2894611549727699</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.005905664852416947</v>
+        <v>0.1970752299400971</v>
       </c>
       <c r="E20">
-        <v>0.03124898976193968</v>
+        <v>0.2338932979742481</v>
       </c>
       <c r="F20">
-        <v>5.075048698627597</v>
+        <v>1.685046504113117</v>
       </c>
       <c r="G20">
-        <v>0.0008078721672404829</v>
+        <v>1.22753105246781</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002673024704986204</v>
       </c>
       <c r="I20">
-        <v>1.35119936918359</v>
+        <v>0.007111004640754537</v>
       </c>
       <c r="J20">
-        <v>0.1350810265616005</v>
+        <v>0.7469796755985953</v>
       </c>
       <c r="K20">
-        <v>4.193061941558256</v>
+        <v>0.2939402508003077</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3189796201272515</v>
       </c>
       <c r="M20">
-        <v>0.829666324940419</v>
+        <v>4.332430935562286</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1064991835508593</v>
+        <v>0.3235420311510637</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006662364103032559</v>
+        <v>0.2248609813673283</v>
       </c>
       <c r="E21">
-        <v>0.03348656575471587</v>
+        <v>0.2707285703117037</v>
       </c>
       <c r="F21">
-        <v>5.572677540711169</v>
+        <v>1.860184686109349</v>
       </c>
       <c r="G21">
-        <v>0.0007952339943047609</v>
+        <v>1.360176069236076</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005819255648723431</v>
       </c>
       <c r="I21">
-        <v>1.439508150930337</v>
+        <v>0.005450410025802377</v>
       </c>
       <c r="J21">
-        <v>0.1457820619654555</v>
+        <v>0.8025212286305532</v>
       </c>
       <c r="K21">
-        <v>4.785855923520671</v>
+        <v>0.2818847887194416</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3718253400296589</v>
       </c>
       <c r="M21">
-        <v>0.9424938620089662</v>
+        <v>4.897875550690173</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1117356491270911</v>
+        <v>0.3498995703444905</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.007183821772606791</v>
+        <v>0.240335209193276</v>
       </c>
       <c r="E22">
-        <v>0.03501308960852967</v>
+        <v>0.2899849897050117</v>
       </c>
       <c r="F22">
-        <v>5.91090379892384</v>
+        <v>1.965279780482987</v>
       </c>
       <c r="G22">
-        <v>0.0007870041269698132</v>
+        <v>1.441400342222494</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008456783014114205</v>
       </c>
       <c r="I22">
-        <v>1.499469122915031</v>
+        <v>0.004237071713044216</v>
       </c>
       <c r="J22">
-        <v>0.1530769639568064</v>
+        <v>0.8362125463657719</v>
       </c>
       <c r="K22">
-        <v>5.186356207266613</v>
+        <v>0.2745465823707001</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3986721963430853</v>
       </c>
       <c r="M22">
-        <v>1.018751378087295</v>
+        <v>5.2500912045071</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1089534426209653</v>
+        <v>0.3384818347886664</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006902712642212094</v>
+        <v>0.2314436763712706</v>
       </c>
       <c r="E23">
-        <v>0.03419205293077532</v>
+        <v>0.2794977621031336</v>
       </c>
       <c r="F23">
-        <v>5.729084546193491</v>
+        <v>1.913941550428177</v>
       </c>
       <c r="G23">
-        <v>0.0007913953135992057</v>
+        <v>1.402767985456819</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006993218140742719</v>
       </c>
       <c r="I23">
-        <v>1.467243148951397</v>
+        <v>0.004525950798702105</v>
       </c>
       <c r="J23">
-        <v>0.1491535836288804</v>
+        <v>0.8206524302860601</v>
       </c>
       <c r="K23">
-        <v>4.971278633969632</v>
+        <v>0.2799946311200845</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3844559404711561</v>
       </c>
       <c r="M23">
-        <v>0.977797354432596</v>
+        <v>5.049650622705826</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09815337478897135</v>
+        <v>0.2905751878689671</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0058936819080877</v>
+        <v>0.1990951527257181</v>
       </c>
       <c r="E24">
-        <v>0.03121340921548388</v>
+        <v>0.2404709357025254</v>
       </c>
       <c r="F24">
-        <v>5.067111032340677</v>
+        <v>1.71556964498825</v>
       </c>
       <c r="G24">
-        <v>0.0008080795495729362</v>
+        <v>1.252413292684253</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002657833623023631</v>
       </c>
       <c r="I24">
-        <v>1.349790096983781</v>
+        <v>0.006551770630991882</v>
       </c>
       <c r="J24">
-        <v>0.1349107033006902</v>
+        <v>0.7596732874557688</v>
       </c>
       <c r="K24">
-        <v>4.183567206230805</v>
+        <v>0.2985943180999442</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3308962838513452</v>
       </c>
       <c r="M24">
-        <v>0.8278597901813001</v>
+        <v>4.316966771327088</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.08602027063891171</v>
+        <v>0.2382167555047801</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004891794812124317</v>
+        <v>0.1647314226449765</v>
       </c>
       <c r="E25">
-        <v>0.02823698116435303</v>
+        <v>0.1989976674180554</v>
       </c>
       <c r="F25">
-        <v>4.3988521454975</v>
+        <v>1.509178044615354</v>
       </c>
       <c r="G25">
-        <v>0.0008263375534478368</v>
+        <v>1.097496210844582</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002496493548247436</v>
       </c>
       <c r="I25">
-        <v>1.231109819454041</v>
+        <v>0.009528947004200816</v>
       </c>
       <c r="J25">
-        <v>0.120626035923074</v>
+        <v>0.6977486820177035</v>
       </c>
       <c r="K25">
-        <v>3.378781678097994</v>
+        <v>0.3196903561661024</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2739494926962749</v>
       </c>
       <c r="M25">
-        <v>0.6748460112366814</v>
+        <v>3.537779754917779</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2053579126503138</v>
+        <v>0.204717416460241</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1382994732640981</v>
+        <v>0.1410270131247557</v>
       </c>
       <c r="E2">
-        <v>0.1683759874795641</v>
+        <v>0.1695974574117827</v>
       </c>
       <c r="F2">
-        <v>1.374528723743964</v>
+        <v>1.352907479636897</v>
       </c>
       <c r="G2">
-        <v>1.000452723538601</v>
+        <v>0.9584581012393016</v>
       </c>
       <c r="H2">
-        <v>0.0001346036832190478</v>
+        <v>0.0001039646079092904</v>
       </c>
       <c r="I2">
-        <v>0.0114737480552769</v>
+        <v>0.006742738893708022</v>
       </c>
       <c r="J2">
-        <v>0.6611087812258916</v>
+        <v>0.683089435806238</v>
       </c>
       <c r="K2">
-        <v>0.3402124447162382</v>
+        <v>0.2932189575298514</v>
       </c>
       <c r="L2">
-        <v>0.23280902849109</v>
+        <v>0.1322521351385779</v>
       </c>
       <c r="M2">
-        <v>2.942253056131108</v>
+        <v>0.09089110246573551</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2329418141436648</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.977307952856222</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1790318459391642</v>
+        <v>0.1830796665045256</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1213874589093393</v>
+        <v>0.1233329203063249</v>
       </c>
       <c r="E3">
-        <v>0.1480352369708839</v>
+        <v>0.1491452316092179</v>
       </c>
       <c r="F3">
-        <v>1.278949225569221</v>
+        <v>1.263490061870115</v>
       </c>
       <c r="G3">
-        <v>0.9303014239688139</v>
+        <v>0.8968946050143813</v>
       </c>
       <c r="H3">
-        <v>0.0009573025272691105</v>
+        <v>0.0008365345223146914</v>
       </c>
       <c r="I3">
-        <v>0.01357348376213041</v>
+        <v>0.008037218234310028</v>
       </c>
       <c r="J3">
-        <v>0.6341549592620765</v>
+        <v>0.6536095673524329</v>
       </c>
       <c r="K3">
-        <v>0.3522479322097789</v>
+        <v>0.3046632113399221</v>
       </c>
       <c r="L3">
-        <v>0.2049115705398847</v>
+        <v>0.1379639897162939</v>
       </c>
       <c r="M3">
-        <v>2.558678598634998</v>
+        <v>0.09547221838339981</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2054684782201335</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.576373537619673</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1625638955104307</v>
+        <v>0.1694454904753684</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1110870274565485</v>
+        <v>0.1125652210312325</v>
       </c>
       <c r="E4">
-        <v>0.1356041150625344</v>
+        <v>0.1366436308910828</v>
       </c>
       <c r="F4">
-        <v>1.221172399875144</v>
+        <v>1.209302301570546</v>
       </c>
       <c r="G4">
-        <v>0.8880951403308615</v>
+        <v>0.8600541718297876</v>
       </c>
       <c r="H4">
-        <v>0.001866293749357206</v>
+        <v>0.001664591990213626</v>
       </c>
       <c r="I4">
-        <v>0.01502878110467742</v>
+        <v>0.008957409285483386</v>
       </c>
       <c r="J4">
-        <v>0.6181287894350476</v>
+        <v>0.635621008366229</v>
       </c>
       <c r="K4">
-        <v>0.3597830865519009</v>
+        <v>0.311823533373448</v>
       </c>
       <c r="L4">
-        <v>0.1878282005670613</v>
+        <v>0.1417462859380514</v>
       </c>
       <c r="M4">
-        <v>2.324934675804514</v>
+        <v>0.09861459459300037</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1886312082215014</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.332218033970548</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1551307239761712</v>
+        <v>0.1632519847135825</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1070578890821139</v>
+        <v>0.1083269089173768</v>
       </c>
       <c r="E5">
-        <v>0.1305955921846831</v>
+        <v>0.1315992318152048</v>
       </c>
       <c r="F5">
-        <v>1.196565010066692</v>
+        <v>1.186304090442562</v>
       </c>
       <c r="G5">
-        <v>0.8698305980677503</v>
+        <v>0.8441968867433332</v>
       </c>
       <c r="H5">
-        <v>0.002332999332678387</v>
+        <v>0.002092207696708037</v>
       </c>
       <c r="I5">
-        <v>0.01575384291777704</v>
+        <v>0.009462416243827931</v>
       </c>
       <c r="J5">
-        <v>0.6110644058594232</v>
+        <v>0.6277495882251145</v>
       </c>
       <c r="K5">
-        <v>0.362424283216666</v>
+        <v>0.3144029573317946</v>
       </c>
       <c r="L5">
-        <v>0.1808395827871934</v>
+        <v>0.1431213665227578</v>
       </c>
       <c r="M5">
-        <v>2.233035241499067</v>
+        <v>0.09993384891401186</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1817446728396774</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.23570992995181</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1531015325662111</v>
+        <v>0.1615465738252908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1065736005717355</v>
+        <v>0.1077808859860312</v>
       </c>
       <c r="E6">
-        <v>0.1298208034662736</v>
+        <v>0.1308100269349239</v>
       </c>
       <c r="F6">
-        <v>1.190939184670924</v>
+        <v>1.181179937283943</v>
       </c>
       <c r="G6">
-        <v>0.8652668626700688</v>
+        <v>0.8402788966416637</v>
       </c>
       <c r="H6">
-        <v>0.002416709068023604</v>
+        <v>0.00216896904130004</v>
       </c>
       <c r="I6">
-        <v>0.01599597250950513</v>
+        <v>0.009678580642933809</v>
       </c>
       <c r="J6">
-        <v>0.6090971690444178</v>
+        <v>0.6257546364958557</v>
       </c>
       <c r="K6">
-        <v>0.362302595012407</v>
+        <v>0.3143852025640355</v>
       </c>
       <c r="L6">
-        <v>0.1796379981097118</v>
+        <v>0.143070045846704</v>
       </c>
       <c r="M6">
-        <v>2.221423991244848</v>
+        <v>0.1001044994964703</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1805660070829163</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.222807298955615</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1602950131998284</v>
+        <v>0.1680378895769934</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.111535262506564</v>
+        <v>0.1133046130377693</v>
       </c>
       <c r="E7">
-        <v>0.1356906849018742</v>
+        <v>0.1368063177541607</v>
       </c>
       <c r="F7">
-        <v>1.216604138090759</v>
+        <v>1.202330286875693</v>
       </c>
       <c r="G7">
-        <v>0.8836377664395911</v>
+        <v>0.8593611509493826</v>
       </c>
       <c r="H7">
-        <v>0.001873558201173964</v>
+        <v>0.001676343400222491</v>
       </c>
       <c r="I7">
-        <v>0.01534722034514768</v>
+        <v>0.00930607587639809</v>
       </c>
       <c r="J7">
-        <v>0.6158477660640926</v>
+        <v>0.6256600290233507</v>
       </c>
       <c r="K7">
-        <v>0.3582882252084705</v>
+        <v>0.3103529630516881</v>
       </c>
       <c r="L7">
-        <v>0.1876206007568157</v>
+        <v>0.1408488346141556</v>
       </c>
       <c r="M7">
-        <v>2.333617264991091</v>
+        <v>0.09841511554932025</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1883348404092828</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.336890826138244</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1934436044322041</v>
+        <v>0.1966094550702309</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1331195217321124</v>
+        <v>0.1367190854328584</v>
       </c>
       <c r="E8">
-        <v>0.1615544757933733</v>
+        <v>0.1630434301845369</v>
       </c>
       <c r="F8">
-        <v>1.335779415191709</v>
+        <v>1.306992413958156</v>
       </c>
       <c r="G8">
-        <v>0.9705149261776569</v>
+        <v>0.9426474328850531</v>
       </c>
       <c r="H8">
-        <v>0.0003315811722885975</v>
+        <v>0.0002819290683258036</v>
       </c>
       <c r="I8">
-        <v>0.01253374881402181</v>
+        <v>0.007583985665418957</v>
       </c>
       <c r="J8">
-        <v>0.6488256495884031</v>
+        <v>0.6441747511762088</v>
       </c>
       <c r="K8">
-        <v>0.3423597461278476</v>
+        <v>0.2947457372433258</v>
       </c>
       <c r="L8">
-        <v>0.2230267132303183</v>
+        <v>0.1328859511165543</v>
       </c>
       <c r="M8">
-        <v>2.822829019664255</v>
+        <v>0.09188119260791106</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2229736250032204</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.841496035727971</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2599208889797922</v>
+        <v>0.25128844196378</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1753251127631898</v>
+        <v>0.1813969193786562</v>
       </c>
       <c r="E9">
-        <v>0.2126158163886274</v>
+        <v>0.2144863820465517</v>
       </c>
       <c r="F9">
-        <v>1.585355676109486</v>
+        <v>1.536437992634063</v>
       </c>
       <c r="G9">
-        <v>1.156317492420399</v>
+        <v>1.109901744663006</v>
       </c>
       <c r="H9">
-        <v>0.0007856679796227617</v>
+        <v>0.0007797074903079793</v>
       </c>
       <c r="I9">
-        <v>0.007932180517959964</v>
+        <v>0.004715121037863312</v>
       </c>
       <c r="J9">
-        <v>0.7220057598138112</v>
+        <v>0.7134112789740925</v>
       </c>
       <c r="K9">
-        <v>0.3149674967260836</v>
+        <v>0.2682965194454754</v>
       </c>
       <c r="L9">
-        <v>0.2932512280512469</v>
+        <v>0.1211536405144438</v>
       </c>
       <c r="M9">
-        <v>3.780810154196672</v>
+        <v>0.08229775507065007</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2919161877625811</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.843027850049282</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3090968210964036</v>
+        <v>0.2958416234763348</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2029500008144254</v>
+        <v>0.2127757470723424</v>
       </c>
       <c r="E10">
-        <v>0.2413894208885239</v>
+        <v>0.2439808718658796</v>
       </c>
       <c r="F10">
-        <v>1.740669114400134</v>
+        <v>1.660940332330597</v>
       </c>
       <c r="G10">
-        <v>1.272412873988827</v>
+        <v>1.234380261822963</v>
       </c>
       <c r="H10">
-        <v>0.003620048784036989</v>
+        <v>0.003449694885937493</v>
       </c>
       <c r="I10">
-        <v>0.005683127559121814</v>
+        <v>0.003519368116249311</v>
       </c>
       <c r="J10">
-        <v>0.7659169770293488</v>
+        <v>0.7088365846021674</v>
       </c>
       <c r="K10">
-        <v>0.2922803338109414</v>
+        <v>0.2465022355777675</v>
       </c>
       <c r="L10">
-        <v>0.3295793251479751</v>
+        <v>0.1129407261286568</v>
       </c>
       <c r="M10">
-        <v>4.488011061558382</v>
+        <v>0.07547351915238298</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3266871222103731</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.561838062710649</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3546797251299552</v>
+        <v>0.3543367378228908</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1802310788294648</v>
+        <v>0.1923055910358187</v>
       </c>
       <c r="E11">
-        <v>0.1797063394213794</v>
+        <v>0.182396027961417</v>
       </c>
       <c r="F11">
-        <v>1.531400777452717</v>
+        <v>1.43386520192395</v>
       </c>
       <c r="G11">
-        <v>1.112395606010182</v>
+        <v>1.127379971625075</v>
       </c>
       <c r="H11">
-        <v>0.02222025108918046</v>
+        <v>0.0219525788115007</v>
       </c>
       <c r="I11">
-        <v>0.005611550102337937</v>
+        <v>0.003842176684926812</v>
       </c>
       <c r="J11">
-        <v>0.679678206055371</v>
+        <v>0.5516867390612106</v>
       </c>
       <c r="K11">
-        <v>0.261868270918475</v>
+        <v>0.225284978159227</v>
       </c>
       <c r="L11">
-        <v>0.2235049332362493</v>
+        <v>0.1067238069082395</v>
       </c>
       <c r="M11">
-        <v>4.693011647470087</v>
+        <v>0.06678062600827328</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2201715343213877</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.70049268451254</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3882879586645487</v>
+        <v>0.3986012942300619</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1559265922449811</v>
+        <v>0.1676453963208502</v>
       </c>
       <c r="E12">
-        <v>0.1305553262749015</v>
+        <v>0.1327592000774267</v>
       </c>
       <c r="F12">
-        <v>1.33898677896336</v>
+        <v>1.243955730910429</v>
       </c>
       <c r="G12">
-        <v>0.9673229350000412</v>
+        <v>1.008621854484971</v>
       </c>
       <c r="H12">
-        <v>0.06048012651567802</v>
+        <v>0.06020043121328911</v>
       </c>
       <c r="I12">
-        <v>0.005469798405103532</v>
+        <v>0.003766514908898344</v>
       </c>
       <c r="J12">
-        <v>0.6045984781731022</v>
+        <v>0.4605321752751763</v>
       </c>
       <c r="K12">
-        <v>0.2482188315136646</v>
+        <v>0.217794114759243</v>
       </c>
       <c r="L12">
-        <v>0.1474818113619776</v>
+        <v>0.1054475699481987</v>
       </c>
       <c r="M12">
-        <v>4.696878166042552</v>
+        <v>0.06285120185282733</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1445565974907694</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.657594212444565</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4108025985083259</v>
+        <v>0.4291570134211611</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1299700481722965</v>
+        <v>0.1387823637714405</v>
       </c>
       <c r="E13">
-        <v>0.08874287521344471</v>
+        <v>0.09002632825383117</v>
       </c>
       <c r="F13">
-        <v>1.14257775311664</v>
+        <v>1.070014733618464</v>
       </c>
       <c r="G13">
-        <v>0.8191877793715605</v>
+        <v>0.8635965369788323</v>
       </c>
       <c r="H13">
-        <v>0.1154728542885408</v>
+        <v>0.1152525610250734</v>
       </c>
       <c r="I13">
-        <v>0.00566730674381688</v>
+        <v>0.003850970845392432</v>
       </c>
       <c r="J13">
-        <v>0.5304843638174503</v>
+        <v>0.4143853448008059</v>
       </c>
       <c r="K13">
-        <v>0.244025086296725</v>
+        <v>0.2174922289120049</v>
       </c>
       <c r="L13">
-        <v>0.09036951781796176</v>
+        <v>0.1060911660704669</v>
       </c>
       <c r="M13">
-        <v>4.561948124972332</v>
+        <v>0.06180621453945256</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08840737127278686</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.493169243007458</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4207741038376298</v>
+        <v>0.4436115743340707</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1115737739903011</v>
+        <v>0.1175581021344243</v>
       </c>
       <c r="E14">
-        <v>0.06433996344253501</v>
+        <v>0.06496117809680158</v>
       </c>
       <c r="F14">
-        <v>1.005125820786816</v>
+        <v>0.954886985687267</v>
       </c>
       <c r="G14">
-        <v>0.7152795412713004</v>
+        <v>0.753339479090954</v>
       </c>
       <c r="H14">
-        <v>0.1642146472900805</v>
+        <v>0.1640556661343879</v>
       </c>
       <c r="I14">
-        <v>0.006057040323136142</v>
+        <v>0.004091516357680902</v>
       </c>
       <c r="J14">
-        <v>0.4795197057880927</v>
+        <v>0.3976631825223649</v>
       </c>
       <c r="K14">
-        <v>0.2458347180503395</v>
+        <v>0.220224808176102</v>
       </c>
       <c r="L14">
-        <v>0.06208122007000227</v>
+        <v>0.1071122834347609</v>
       </c>
       <c r="M14">
-        <v>4.408508058161033</v>
+        <v>0.06245221071159035</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0608453772843589</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.326064983075412</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4194647526741591</v>
+        <v>0.4428702466454268</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1067389400274052</v>
+        <v>0.111666114037078</v>
       </c>
       <c r="E15">
-        <v>0.0588575320478899</v>
+        <v>0.05929652124435947</v>
       </c>
       <c r="F15">
-        <v>0.9685632681282215</v>
+        <v>0.9268889337008233</v>
       </c>
       <c r="G15">
-        <v>0.6873275787118018</v>
+        <v>0.7207886444016651</v>
       </c>
       <c r="H15">
-        <v>0.1764888660502635</v>
+        <v>0.1763553754102105</v>
       </c>
       <c r="I15">
-        <v>0.006363277157913849</v>
+        <v>0.004339111385425198</v>
       </c>
       <c r="J15">
-        <v>0.4663231931844081</v>
+        <v>0.3992474638589414</v>
       </c>
       <c r="K15">
-        <v>0.2476279238389321</v>
+        <v>0.2217834796362315</v>
       </c>
       <c r="L15">
-        <v>0.05656260297105042</v>
+        <v>0.1074585271585082</v>
       </c>
       <c r="M15">
-        <v>4.346249444542821</v>
+        <v>0.06306557750001884</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05554687580837481</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.262958228772106</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3913422333674959</v>
+        <v>0.4092928009755781</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1011991660656619</v>
+        <v>0.1029099355965428</v>
       </c>
       <c r="E16">
-        <v>0.05659602548766252</v>
+        <v>0.05670726196819764</v>
       </c>
       <c r="F16">
-        <v>0.943513355980258</v>
+        <v>0.9286389387977607</v>
       </c>
       <c r="G16">
-        <v>0.6678046971775586</v>
+        <v>0.6754305220248824</v>
       </c>
       <c r="H16">
-        <v>0.1627966388864905</v>
+        <v>0.1627549075181491</v>
       </c>
       <c r="I16">
-        <v>0.007388317926160681</v>
+        <v>0.004972835526293906</v>
       </c>
       <c r="J16">
-        <v>0.4622751940461285</v>
+        <v>0.4527511463357712</v>
       </c>
       <c r="K16">
-        <v>0.2566410467930131</v>
+        <v>0.2283625435772132</v>
       </c>
       <c r="L16">
-        <v>0.05483692544410701</v>
+        <v>0.1078278130631496</v>
       </c>
       <c r="M16">
-        <v>4.077588654087492</v>
+        <v>0.06665153510506716</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05441625288287</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.019141837565599</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3644796180376915</v>
+        <v>0.377117080063357</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.106467446216314</v>
+        <v>0.1073203598056409</v>
       </c>
       <c r="E17">
-        <v>0.06673328749466378</v>
+        <v>0.06682200430739726</v>
       </c>
       <c r="F17">
-        <v>0.9954982908830203</v>
+        <v>0.9881475002823095</v>
       </c>
       <c r="G17">
-        <v>0.7067066636693369</v>
+        <v>0.7003827189813592</v>
       </c>
       <c r="H17">
-        <v>0.1246177024946462</v>
+        <v>0.1246040689956089</v>
       </c>
       <c r="I17">
-        <v>0.008010445125534282</v>
+        <v>0.005371058713341981</v>
       </c>
       <c r="J17">
-        <v>0.4856843389750622</v>
+        <v>0.4997762655928142</v>
       </c>
       <c r="K17">
-        <v>0.2622775008403888</v>
+        <v>0.2326362745420907</v>
       </c>
       <c r="L17">
-        <v>0.06625583243717514</v>
+        <v>0.1082551524359934</v>
       </c>
       <c r="M17">
-        <v>3.953629020980088</v>
+        <v>0.06898032499444895</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06604617114102851</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.917228494943799</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3385002875060081</v>
+        <v>0.3439214412011182</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1221475059412285</v>
+        <v>0.123496480674504</v>
       </c>
       <c r="E18">
-        <v>0.09326915534089153</v>
+        <v>0.09354444348055679</v>
       </c>
       <c r="F18">
-        <v>1.128273628768554</v>
+        <v>1.117078071092578</v>
       </c>
       <c r="G18">
-        <v>0.8074201521829423</v>
+        <v>0.7880793279249758</v>
       </c>
       <c r="H18">
-        <v>0.07176438529425866</v>
+        <v>0.07175740406619724</v>
       </c>
       <c r="I18">
-        <v>0.007980066221896287</v>
+        <v>0.005210162879168756</v>
       </c>
       <c r="J18">
-        <v>0.5388286472399386</v>
+        <v>0.5601914170721471</v>
       </c>
       <c r="K18">
-        <v>0.2682885628348385</v>
+        <v>0.2369518097232277</v>
       </c>
       <c r="L18">
-        <v>0.1007070826815308</v>
+        <v>0.1093253794745461</v>
       </c>
       <c r="M18">
-        <v>3.929808743285491</v>
+        <v>0.07097151073596387</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1004586409846411</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.922960164516724</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3113077718733734</v>
+        <v>0.3091149223331087</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1473093684778775</v>
+        <v>0.1500574567520943</v>
       </c>
       <c r="E19">
-        <v>0.1384938934511446</v>
+        <v>0.1391746831055016</v>
       </c>
       <c r="F19">
-        <v>1.320462605981788</v>
+        <v>1.298045025898361</v>
       </c>
       <c r="G19">
-        <v>0.9522172112311154</v>
+        <v>0.9189782571454685</v>
       </c>
       <c r="H19">
-        <v>0.02689190249922291</v>
+        <v>0.02687916471562346</v>
       </c>
       <c r="I19">
-        <v>0.008008269723976724</v>
+        <v>0.005300285708144337</v>
       </c>
       <c r="J19">
-        <v>0.6124505697242313</v>
+        <v>0.6316871208163946</v>
       </c>
       <c r="K19">
-        <v>0.277294222994509</v>
+        <v>0.2426341813445978</v>
       </c>
       <c r="L19">
-        <v>0.1669950904313851</v>
+        <v>0.111338553541405</v>
       </c>
       <c r="M19">
-        <v>4.00680465371039</v>
+        <v>0.07321080831179838</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1664242269715999</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.033222200854709</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2894611549727699</v>
+        <v>0.2768010599733088</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1970752299400971</v>
+        <v>0.2042943669148087</v>
       </c>
       <c r="E20">
-        <v>0.2338932979742481</v>
+        <v>0.2358524427356343</v>
       </c>
       <c r="F20">
-        <v>1.685046504113117</v>
+        <v>1.626769422656395</v>
       </c>
       <c r="G20">
-        <v>1.22753105246781</v>
+        <v>1.178070416062042</v>
       </c>
       <c r="H20">
-        <v>0.002673024704986204</v>
+        <v>0.002580653339565586</v>
       </c>
       <c r="I20">
-        <v>0.007111004640754537</v>
+        <v>0.004812902622738591</v>
       </c>
       <c r="J20">
-        <v>0.7469796755985953</v>
+        <v>0.7314637291090378</v>
       </c>
       <c r="K20">
-        <v>0.2939402508003077</v>
+        <v>0.2502142447852789</v>
       </c>
       <c r="L20">
-        <v>0.3189796201272515</v>
+        <v>0.1142549455802686</v>
       </c>
       <c r="M20">
-        <v>4.332430935562286</v>
+        <v>0.07642812998436188</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.316954607550997</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.408124306650279</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3235420311510637</v>
+        <v>0.315697169936584</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2248609813673283</v>
+        <v>0.2431610721444457</v>
       </c>
       <c r="E21">
-        <v>0.2707285703117037</v>
+        <v>0.2754670541455653</v>
       </c>
       <c r="F21">
-        <v>1.860184686109349</v>
+        <v>1.715016918155698</v>
       </c>
       <c r="G21">
-        <v>1.360176069236076</v>
+        <v>1.375813105995405</v>
       </c>
       <c r="H21">
-        <v>0.005819255648723431</v>
+        <v>0.005381154265676646</v>
       </c>
       <c r="I21">
-        <v>0.005450410025802377</v>
+        <v>0.003908847334617604</v>
       </c>
       <c r="J21">
-        <v>0.8025212286305532</v>
+        <v>0.6102068390993338</v>
       </c>
       <c r="K21">
-        <v>0.2818847887194416</v>
+        <v>0.2333260842139682</v>
       </c>
       <c r="L21">
-        <v>0.3718253400296589</v>
+        <v>0.1087582978286792</v>
       </c>
       <c r="M21">
-        <v>4.897875550690173</v>
+        <v>0.07102194030793285</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3662379911958737</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.939648754808616</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3498995703444905</v>
+        <v>0.3463441487713368</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.240335209193276</v>
+        <v>0.2667421952656923</v>
       </c>
       <c r="E22">
-        <v>0.2899849897050117</v>
+        <v>0.296751924745088</v>
       </c>
       <c r="F22">
-        <v>1.965279780482987</v>
+        <v>1.758178063780178</v>
       </c>
       <c r="G22">
-        <v>1.441400342222494</v>
+        <v>1.508326600401148</v>
       </c>
       <c r="H22">
-        <v>0.008456783014114205</v>
+        <v>0.007699102495482446</v>
       </c>
       <c r="I22">
-        <v>0.004237071713044216</v>
+        <v>0.003060488479470713</v>
       </c>
       <c r="J22">
-        <v>0.8362125463657719</v>
+        <v>0.5283142670803045</v>
       </c>
       <c r="K22">
-        <v>0.2745465823707001</v>
+        <v>0.2227443007538206</v>
       </c>
       <c r="L22">
-        <v>0.3986721963430853</v>
+        <v>0.1057639040471119</v>
       </c>
       <c r="M22">
-        <v>5.2500912045071</v>
+        <v>0.06766563260454195</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3905608458453855</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5.263821690002032</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3384818347886664</v>
+        <v>0.3307306128636611</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2314436763712706</v>
+        <v>0.2524722933871431</v>
       </c>
       <c r="E23">
-        <v>0.2794977621031336</v>
+        <v>0.2849089245749497</v>
       </c>
       <c r="F23">
-        <v>1.913941550428177</v>
+        <v>1.747131901308862</v>
       </c>
       <c r="G23">
-        <v>1.402767985456819</v>
+        <v>1.432277455720964</v>
       </c>
       <c r="H23">
-        <v>0.006993218140742719</v>
+        <v>0.00643294058233379</v>
       </c>
       <c r="I23">
-        <v>0.004525950798702105</v>
+        <v>0.003102596834335003</v>
       </c>
       <c r="J23">
-        <v>0.8206524302860601</v>
+        <v>0.589719423683249</v>
       </c>
       <c r="K23">
-        <v>0.2799946311200845</v>
+        <v>0.2296103020369307</v>
       </c>
       <c r="L23">
-        <v>0.3844559404711561</v>
+        <v>0.1076194722570887</v>
       </c>
       <c r="M23">
-        <v>5.049650622705826</v>
+        <v>0.07008096070708003</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3779680857239356</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5.087400520571521</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2905751878689671</v>
+        <v>0.2765091346454227</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1990951527257181</v>
+        <v>0.206595216498684</v>
       </c>
       <c r="E24">
-        <v>0.2404709357025254</v>
+        <v>0.2425363322654732</v>
       </c>
       <c r="F24">
-        <v>1.71556964498825</v>
+        <v>1.654825434580502</v>
       </c>
       <c r="G24">
-        <v>1.252413292684253</v>
+        <v>1.19939977348713</v>
       </c>
       <c r="H24">
-        <v>0.002657833623023631</v>
+        <v>0.00256322781152285</v>
       </c>
       <c r="I24">
-        <v>0.006551770630991882</v>
+        <v>0.004168760916957837</v>
       </c>
       <c r="J24">
-        <v>0.7596732874557688</v>
+        <v>0.7440441632118961</v>
       </c>
       <c r="K24">
-        <v>0.2985943180999442</v>
+        <v>0.2531522010530036</v>
       </c>
       <c r="L24">
-        <v>0.3308962838513452</v>
+        <v>0.1152888508036578</v>
       </c>
       <c r="M24">
-        <v>4.316966771327088</v>
+        <v>0.07759175078678027</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3287822915598042</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.399128052360311</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2382167555047801</v>
+        <v>0.2327530745465367</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1647314226449765</v>
+        <v>0.1694534235449225</v>
       </c>
       <c r="E25">
-        <v>0.1989976674180554</v>
+        <v>0.2005809389933404</v>
       </c>
       <c r="F25">
-        <v>1.509178044615354</v>
+        <v>1.47153347691399</v>
       </c>
       <c r="G25">
-        <v>1.097496210844582</v>
+        <v>1.052774114608752</v>
       </c>
       <c r="H25">
-        <v>0.0002496493548247436</v>
+        <v>0.0002619603652149749</v>
       </c>
       <c r="I25">
-        <v>0.009528947004200816</v>
+        <v>0.005943484784795672</v>
       </c>
       <c r="J25">
-        <v>0.6977486820177035</v>
+        <v>0.7024838015591826</v>
       </c>
       <c r="K25">
-        <v>0.3196903561661024</v>
+        <v>0.2739332073247791</v>
       </c>
       <c r="L25">
-        <v>0.2739494926962749</v>
+        <v>0.1234665167617832</v>
       </c>
       <c r="M25">
-        <v>3.537779754917779</v>
+        <v>0.08418152538686385</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2731666413353366</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.589198844356531</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
